--- a/public/tmp/reportCarstatus.xlsx
+++ b/public/tmp/reportCarstatus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>#</t>
   </si>
@@ -77,352 +77,322 @@
     <t>ปกติ</t>
   </si>
   <si>
-    <t>กธ916</t>
+    <t>บย4492</t>
+  </si>
+  <si>
+    <t>Triton</t>
+  </si>
+  <si>
+    <t>L-เบา</t>
+  </si>
+  <si>
+    <t>คุ้มภัยโตเกียว</t>
+  </si>
+  <si>
+    <t>ศุภวัฒน์ หลานเด็น</t>
+  </si>
+  <si>
+    <t>บย4037</t>
+  </si>
+  <si>
+    <t>3ขภ4638</t>
+  </si>
+  <si>
+    <t>HAVAL H6</t>
+  </si>
+  <si>
+    <t>M-กลาง</t>
+  </si>
+  <si>
+    <t>วิริยะประกันภัย</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>07-QC</t>
+  </si>
+  <si>
+    <t>2024-05-11</t>
+  </si>
+  <si>
+    <t>กพ5057</t>
+  </si>
+  <si>
+    <t>BP81-2404-0017</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>สิทธิศักดิ์ กังสกุล</t>
+  </si>
+  <si>
+    <t>บม9872</t>
+  </si>
+  <si>
+    <t>มิตรแท้ประกันภัย</t>
+  </si>
+  <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
+    <t>กพ3084</t>
+  </si>
+  <si>
+    <t>GOODCAT</t>
+  </si>
+  <si>
+    <t>BP81-2406-0068</t>
+  </si>
+  <si>
+    <t>ธนชาต</t>
+  </si>
+  <si>
+    <t>กพ5446</t>
+  </si>
+  <si>
+    <t>บม1071</t>
+  </si>
+  <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>7กฉ4864</t>
+  </si>
+  <si>
+    <t>BP81-2406-0011</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>ทิพยประกันภัย</t>
+  </si>
+  <si>
+    <t>บร2201</t>
+  </si>
+  <si>
+    <t>กน2699</t>
+  </si>
+  <si>
+    <t>Pajero</t>
+  </si>
+  <si>
+    <t>ขค7679</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>เมืองไทยประกัน</t>
+  </si>
+  <si>
+    <t>พัชรินทร์ ชุมนาค</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
+    <t>กพ5729</t>
+  </si>
+  <si>
+    <t>XPANDER</t>
+  </si>
+  <si>
+    <t>BP81-2406-0026</t>
+  </si>
+  <si>
+    <t>ก2083</t>
+  </si>
+  <si>
+    <t>Pajero Sport</t>
+  </si>
+  <si>
+    <t>กบ7755</t>
+  </si>
+  <si>
+    <t>ATT03</t>
+  </si>
+  <si>
+    <t>ก2569</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>กพ707</t>
+  </si>
+  <si>
+    <t>BP81-2406-0080</t>
+  </si>
+  <si>
+    <t>กว3243</t>
+  </si>
+  <si>
+    <t>SONIC</t>
+  </si>
+  <si>
+    <t>กธ9435</t>
+  </si>
+  <si>
+    <t>2ฒภ4246</t>
+  </si>
+  <si>
+    <t>กพ6365</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>บย5147</t>
+  </si>
+  <si>
+    <t>นวกิจ</t>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
+    <t>ก2181</t>
+  </si>
+  <si>
+    <t>BP81-2406-0087</t>
+  </si>
+  <si>
+    <t>กท7926</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>กท4137</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>กบ5366</t>
+  </si>
+  <si>
+    <t>7กด4315</t>
+  </si>
+  <si>
+    <t>กพ767</t>
+  </si>
+  <si>
+    <t>กธ9016</t>
+  </si>
+  <si>
+    <t>Xpander</t>
+  </si>
+  <si>
+    <t>LMG</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>2024-07-23</t>
+  </si>
+  <si>
+    <t>บย6228</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>กน6326</t>
+  </si>
+  <si>
+    <t>BP81-2406-0091</t>
+  </si>
+  <si>
+    <t>กพ5771</t>
+  </si>
+  <si>
+    <t>กน766</t>
+  </si>
+  <si>
+    <t>กพ7642</t>
+  </si>
+  <si>
+    <t>กบ5188</t>
+  </si>
+  <si>
+    <t>Good cat</t>
+  </si>
+  <si>
+    <t>บร846</t>
+  </si>
+  <si>
+    <t>5ขจ3562</t>
+  </si>
+  <si>
+    <t>4ขก3041</t>
+  </si>
+  <si>
+    <t>กพ6525</t>
   </si>
   <si>
     <t>Attrage</t>
   </si>
   <si>
-    <t>M-กลาง</t>
-  </si>
-  <si>
-    <t>คุ้มภัยโตเกียว</t>
-  </si>
-  <si>
-    <t>สิทธิศักดิ์ กังสกุล</t>
-  </si>
-  <si>
-    <t>กธ5427</t>
-  </si>
-  <si>
-    <t>YARIS</t>
-  </si>
-  <si>
-    <t>L-เบา</t>
-  </si>
-  <si>
-    <t>นวกิจ</t>
-  </si>
-  <si>
-    <t>ศุภวัฒน์ หลานเด็น</t>
-  </si>
-  <si>
-    <t>ณข-962</t>
-  </si>
-  <si>
-    <t>Pajero</t>
-  </si>
-  <si>
-    <t>2024-02-06</t>
-  </si>
-  <si>
-    <t>1ขง9110</t>
-  </si>
-  <si>
-    <t>Altis</t>
-  </si>
-  <si>
-    <t>BP81-2402-0009</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>วิริยะประกันภัย</t>
-  </si>
-  <si>
-    <t>กท9578</t>
-  </si>
-  <si>
-    <t>บย4492</t>
-  </si>
-  <si>
-    <t>Triton</t>
-  </si>
-  <si>
-    <t>ขฉ9375</t>
-  </si>
-  <si>
-    <t>บย4037</t>
-  </si>
-  <si>
-    <t>ณข958</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>01-ถอด</t>
-  </si>
-  <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2ฒฬ4210</t>
-  </si>
-  <si>
-    <t>HILUX VIGO</t>
-  </si>
-  <si>
-    <t>BP81-2403-0065</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>ธนชาต</t>
-  </si>
-  <si>
-    <t>กน2244</t>
-  </si>
-  <si>
-    <t>Outlander</t>
-  </si>
-  <si>
-    <t>3ขภ4638</t>
-  </si>
-  <si>
-    <t>HAVAL H6</t>
-  </si>
-  <si>
-    <t>กน6237</t>
-  </si>
-  <si>
-    <t>กธ82</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>กน2471</t>
-  </si>
-  <si>
-    <t>Xpander</t>
-  </si>
-  <si>
-    <t>BP81-2403-0070</t>
-  </si>
-  <si>
-    <t>บร1423</t>
-  </si>
-  <si>
-    <t>บย8016</t>
-  </si>
-  <si>
-    <t>3ฒว8084</t>
-  </si>
-  <si>
-    <t>กน7350</t>
-  </si>
-  <si>
-    <t>กพ5057</t>
-  </si>
-  <si>
-    <t>บม9194</t>
-  </si>
-  <si>
-    <t>9กภ8851</t>
-  </si>
-  <si>
-    <t>บร464</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
-  </si>
-  <si>
-    <t>บม6855</t>
-  </si>
-  <si>
-    <t>BP81-2403-0121</t>
-  </si>
-  <si>
-    <t>BP81-2403-0122</t>
-  </si>
-  <si>
-    <t>บร1747</t>
-  </si>
-  <si>
-    <t>บพ721</t>
-  </si>
-  <si>
-    <t>เมืองไทยประกัน</t>
-  </si>
-  <si>
-    <t>กธ998</t>
-  </si>
-  <si>
-    <t>ขค172</t>
-  </si>
-  <si>
-    <t>Mirage</t>
-  </si>
-  <si>
-    <t>LMG</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2024-03-31</t>
-  </si>
-  <si>
-    <t>กน9172</t>
-  </si>
-  <si>
-    <t>BP81-2403-0115</t>
-  </si>
-  <si>
-    <t>อื่นๆ</t>
-  </si>
-  <si>
-    <t>บย6134</t>
-  </si>
-  <si>
-    <t>กรุงไทยพานิช</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
-    <t>บบ8542</t>
-  </si>
-  <si>
-    <t>D-MAX</t>
-  </si>
-  <si>
-    <t>BP81-2403-0125</t>
-  </si>
-  <si>
-    <t>กพ1071</t>
-  </si>
-  <si>
-    <t>กพ6123</t>
+    <t>กธ2325</t>
+  </si>
+  <si>
+    <t>บร896</t>
+  </si>
+  <si>
+    <t>กน1723</t>
+  </si>
+  <si>
+    <t>กพ2760</t>
+  </si>
+  <si>
+    <t>Z067058342</t>
+  </si>
+  <si>
+    <t>3ขด5695</t>
   </si>
   <si>
     <t>JOLION</t>
   </si>
   <si>
-    <t>ขค8258</t>
-  </si>
-  <si>
-    <t>1ขศ6939</t>
-  </si>
-  <si>
-    <t>บย5254</t>
-  </si>
-  <si>
-    <t>4ขศ5845</t>
-  </si>
-  <si>
-    <t>2ฒต529</t>
-  </si>
-  <si>
-    <t>็Hilux Revo</t>
-  </si>
-  <si>
-    <t>กต8292</t>
-  </si>
-  <si>
-    <t>กน3151</t>
-  </si>
-  <si>
-    <t>บย7591</t>
-  </si>
-  <si>
-    <t>บย7171</t>
-  </si>
-  <si>
-    <t>บม9872</t>
-  </si>
-  <si>
-    <t>มิตรแท้ประกันภัย</t>
-  </si>
-  <si>
-    <t>ขค7829</t>
-  </si>
-  <si>
-    <t>กพ2328</t>
-  </si>
-  <si>
-    <t>ก2173</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>กน3736</t>
-  </si>
-  <si>
-    <t>กพ5226</t>
-  </si>
-  <si>
-    <t>XPANDER</t>
-  </si>
-  <si>
-    <t>กพ3160</t>
-  </si>
-  <si>
-    <t>บร453</t>
-  </si>
-  <si>
-    <t>กต3852</t>
-  </si>
-  <si>
-    <t>บม9480</t>
-  </si>
-  <si>
-    <t>กบ6504</t>
-  </si>
-  <si>
-    <t>3ขฎ4032</t>
-  </si>
-  <si>
-    <t>2024-04-23</t>
-  </si>
-  <si>
-    <t>2024-05-07</t>
-  </si>
-  <si>
-    <t>4dwwfw</t>
-  </si>
-  <si>
-    <t>rt3ttt</t>
-  </si>
-  <si>
-    <t>fwwffw</t>
-  </si>
-  <si>
-    <t>มิตซูบิชิ มอเตอร์</t>
-  </si>
-  <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
-    <t>2024-05-08</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>wfwwwf</t>
-  </si>
-  <si>
-    <t>dqfqqf</t>
-  </si>
-  <si>
-    <t>ffwfwfwfw</t>
-  </si>
-  <si>
-    <t>2024-04-08</t>
+    <t>กว4545</t>
+  </si>
+  <si>
+    <t>กพ3890</t>
+  </si>
+  <si>
+    <t>กพ7901</t>
+  </si>
+  <si>
+    <t>กน2464</t>
+  </si>
+  <si>
+    <t>ก3437</t>
+  </si>
+  <si>
+    <t>บร3406</t>
+  </si>
+  <si>
+    <t>TRITON</t>
   </si>
 </sst>
 </file>
@@ -824,10 +794,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W63"/>
+      <selection activeCell="A2" sqref="A2:W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -936,13 +906,13 @@
         <v>18</v>
       </c>
       <c r="N2" s="6">
-        <v>25245.0</v>
+        <v>9860.0</v>
       </c>
       <c r="O2" s="6">
-        <v>6199.05</v>
+        <v>1198.0</v>
       </c>
       <c r="P2" s="6">
-        <v>31444.05</v>
+        <v>11058.0</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>24</v>
@@ -979,29 +949,29 @@
         <v>25</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="6">
-        <v>6230.0</v>
+        <v>9010.0</v>
       </c>
       <c r="O3" s="6">
         <v>0.0</v>
       </c>
       <c r="P3" s="6">
-        <v>6230.0</v>
+        <v>9010.0</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1032,29 +1002,29 @@
         <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="6">
-        <v>16150.0</v>
+        <v>18190.0</v>
       </c>
       <c r="O4" s="6">
-        <v>8811.1</v>
+        <v>694.62</v>
       </c>
       <c r="P4" s="6">
-        <v>24961.1</v>
+        <v>18884.62</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>24</v>
@@ -1071,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -1085,34 +1055,32 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="6">
-        <v>60044.0</v>
+        <v>5220.0</v>
       </c>
       <c r="O5" s="6">
-        <v>0.0</v>
+        <v>17748.0</v>
       </c>
       <c r="P5" s="6">
-        <v>60044.0</v>
+        <v>22968.0</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>24</v>
@@ -1129,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -1141,37 +1109,41 @@
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G6" s="6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N6" s="6">
-        <v>15385.0</v>
+        <v>76372.5</v>
       </c>
       <c r="O6" s="6">
-        <v>17657.2</v>
+        <v>69044.59</v>
       </c>
       <c r="P6" s="6">
-        <v>33042.2</v>
+        <v>145417.09</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -1202,32 +1174,32 @@
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="6">
-        <v>9860.0</v>
+        <v>7012.5</v>
       </c>
       <c r="O7" s="6">
-        <v>1198.0</v>
+        <v>6230.5</v>
       </c>
       <c r="P7" s="6">
-        <v>11058.0</v>
+        <v>13243.0</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1241,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>18</v>
@@ -1255,35 +1227,37 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="K8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="6">
-        <v>22760.0</v>
+        <v>3910.0</v>
       </c>
       <c r="O8" s="6">
-        <v>1004.7</v>
+        <v>7929.48</v>
       </c>
       <c r="P8" s="6">
-        <v>23764.7</v>
+        <v>11839.48</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1314,32 +1288,32 @@
         <v>18</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="6">
-        <v>9010.0</v>
+        <v>3995.0</v>
       </c>
       <c r="O9" s="6">
-        <v>0.0</v>
+        <v>3678.6</v>
       </c>
       <c r="P9" s="6">
-        <v>9010.0</v>
+        <v>7673.6</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1370,14 +1344,14 @@
         <v>18</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>23</v>
@@ -1386,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="N10" s="6">
-        <v>14365.0</v>
+        <v>4465.0</v>
       </c>
       <c r="O10" s="6">
-        <v>1586.1</v>
+        <v>3898.95</v>
       </c>
       <c r="P10" s="6">
-        <v>15951.1</v>
+        <v>8363.95</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>24</v>
@@ -1409,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -1421,41 +1395,39 @@
       <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N11" s="6">
-        <v>68892.5</v>
+        <v>42030.0</v>
       </c>
       <c r="O11" s="6">
-        <v>0.0</v>
+        <v>139294.49</v>
       </c>
       <c r="P11" s="6">
-        <v>68892.5</v>
+        <v>181324.49</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1486,29 +1458,29 @@
         <v>18</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="6">
-        <v>22253.0</v>
+        <v>4930.0</v>
       </c>
       <c r="O12" s="6">
-        <v>45813.39</v>
+        <v>569.5</v>
       </c>
       <c r="P12" s="6">
-        <v>68066.39</v>
+        <v>5499.5</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>24</v>
@@ -1542,32 +1514,32 @@
         <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="6">
+        <v>36762.5</v>
+      </c>
+      <c r="O13" s="6">
+        <v>12325.0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>49087.5</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="6">
-        <v>5220.0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>17748.0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>22968.0</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1598,32 +1570,32 @@
         <v>18</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N14" s="6">
-        <v>18190.0</v>
+        <v>8600.0</v>
       </c>
       <c r="O14" s="6">
-        <v>694.62</v>
+        <v>0.0</v>
       </c>
       <c r="P14" s="6">
-        <v>18884.62</v>
+        <v>8600.0</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1637,7 +1609,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>18</v>
@@ -1651,17 +1623,19 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="K15" s="6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>23</v>
@@ -1670,16 +1644,16 @@
         <v>18</v>
       </c>
       <c r="N15" s="6">
-        <v>25580.0</v>
+        <v>255.0</v>
       </c>
       <c r="O15" s="6">
-        <v>14767.9</v>
+        <v>1419.5</v>
       </c>
       <c r="P15" s="6">
-        <v>40347.9</v>
+        <v>1674.5</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1710,10 +1684,10 @@
         <v>18</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
@@ -1726,16 +1700,16 @@
         <v>18</v>
       </c>
       <c r="N16" s="6">
-        <v>14246.0</v>
+        <v>5185.0</v>
       </c>
       <c r="O16" s="6">
-        <v>17655.35</v>
+        <v>5525.0</v>
       </c>
       <c r="P16" s="6">
-        <v>31901.35</v>
+        <v>10710.0</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1766,32 +1740,32 @@
         <v>18</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N17" s="6">
-        <v>12716.0</v>
+        <v>6630.0</v>
       </c>
       <c r="O17" s="6">
-        <v>242.25</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="6">
-        <v>12958.25</v>
+        <v>6630.0</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1822,32 +1796,32 @@
         <v>18</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="6">
-        <v>22287.0</v>
+        <v>8840.0</v>
       </c>
       <c r="O18" s="6">
-        <v>19348.55</v>
+        <v>22584.84</v>
       </c>
       <c r="P18" s="6">
-        <v>41635.55</v>
+        <v>31424.84</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1861,7 +1835,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>18</v>
@@ -1875,19 +1849,19 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>23</v>
@@ -1896,16 +1870,16 @@
         <v>18</v>
       </c>
       <c r="N19" s="6">
-        <v>24225.0</v>
+        <v>55312.0</v>
       </c>
       <c r="O19" s="6">
-        <v>31280.0</v>
+        <v>100045.09</v>
       </c>
       <c r="P19" s="6">
-        <v>55505.0</v>
+        <v>155357.09</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -1936,32 +1910,32 @@
         <v>18</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N20" s="6">
-        <v>2635.0</v>
+        <v>14018.68</v>
       </c>
       <c r="O20" s="6">
-        <v>2201.5</v>
+        <v>600.0</v>
       </c>
       <c r="P20" s="6">
-        <v>4836.5</v>
+        <v>14618.68</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -1992,10 +1966,10 @@
         <v>18</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="s">
@@ -2008,16 +1982,16 @@
         <v>18</v>
       </c>
       <c r="N21" s="6">
-        <v>16660.0</v>
+        <v>1020.0</v>
       </c>
       <c r="O21" s="6">
-        <v>18439.05</v>
+        <v>0.0</v>
       </c>
       <c r="P21" s="6">
-        <v>35099.05</v>
+        <v>1020.0</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -2048,32 +2022,32 @@
         <v>18</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="6">
-        <v>9520.0</v>
+        <v>24692.5</v>
       </c>
       <c r="O22" s="6">
-        <v>9049.1</v>
+        <v>3774.0</v>
       </c>
       <c r="P22" s="6">
-        <v>18569.1</v>
+        <v>28466.5</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
@@ -2104,32 +2078,32 @@
         <v>18</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N23" s="6">
-        <v>55695.0</v>
+        <v>4845.0</v>
       </c>
       <c r="O23" s="6">
-        <v>77057.69</v>
+        <v>59273.68</v>
       </c>
       <c r="P23" s="6">
-        <v>132752.69</v>
+        <v>64118.68</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -2160,32 +2134,32 @@
         <v>18</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N24" s="6">
-        <v>66767.5</v>
+        <v>21165.0</v>
       </c>
       <c r="O24" s="6">
-        <v>69044.59</v>
+        <v>19504.95</v>
       </c>
       <c r="P24" s="6">
-        <v>135812.09</v>
+        <v>40669.95</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -2199,7 +2173,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>18</v>
@@ -2213,35 +2187,37 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="K25" s="6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N25" s="6">
-        <v>204.0</v>
+        <v>29433.0</v>
       </c>
       <c r="O25" s="6">
-        <v>2533.0</v>
+        <v>61009.26</v>
       </c>
       <c r="P25" s="6">
-        <v>2737.0</v>
+        <v>90442.26</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -2272,14 +2248,14 @@
         <v>18</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>23</v>
@@ -2288,16 +2264,16 @@
         <v>18</v>
       </c>
       <c r="N26" s="6">
-        <v>32838.0</v>
+        <v>35460.0</v>
       </c>
       <c r="O26" s="6">
-        <v>11027.05</v>
+        <v>51701.94</v>
       </c>
       <c r="P26" s="6">
-        <v>43865.05</v>
+        <v>87161.94</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2328,32 +2304,32 @@
         <v>18</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N27" s="6">
-        <v>680.0</v>
+        <v>3551.4</v>
       </c>
       <c r="O27" s="6">
         <v>0.0</v>
       </c>
       <c r="P27" s="6">
-        <v>680.0</v>
+        <v>3551.4</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -2367,7 +2343,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>18</v>
@@ -2379,23 +2355,19 @@
       <c r="E28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J28" s="6"/>
       <c r="K28" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>23</v>
@@ -2404,16 +2376,16 @@
         <v>18</v>
       </c>
       <c r="N28" s="6">
-        <v>19805.0</v>
+        <v>42925.0</v>
       </c>
       <c r="O28" s="6">
-        <v>11693.45</v>
+        <v>20747.74</v>
       </c>
       <c r="P28" s="6">
-        <v>31498.45</v>
+        <v>63672.74</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -2427,7 +2399,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>18</v>
@@ -2439,23 +2411,19 @@
       <c r="E29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J29" s="6"/>
       <c r="K29" s="6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>23</v>
@@ -2464,16 +2432,16 @@
         <v>18</v>
       </c>
       <c r="N29" s="6">
-        <v>42245.0</v>
+        <v>10235.0</v>
       </c>
       <c r="O29" s="6">
-        <v>6525.45</v>
+        <v>0.0</v>
       </c>
       <c r="P29" s="6">
-        <v>48770.45</v>
+        <v>10235.0</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -2504,32 +2472,32 @@
         <v>18</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N30" s="6">
-        <v>510.0</v>
+        <v>3055.0</v>
       </c>
       <c r="O30" s="6">
-        <v>1997.5</v>
+        <v>0.0</v>
       </c>
       <c r="P30" s="6">
-        <v>2507.5</v>
+        <v>3055.0</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
@@ -2560,32 +2528,32 @@
         <v>18</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N31" s="6">
-        <v>8130.84</v>
+        <v>12070.0</v>
       </c>
       <c r="O31" s="6">
-        <v>7942.4</v>
+        <v>7412.0</v>
       </c>
       <c r="P31" s="6">
-        <v>16073.24</v>
+        <v>19482.0</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
@@ -2616,14 +2584,14 @@
         <v>18</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>23</v>
@@ -2632,16 +2600,16 @@
         <v>18</v>
       </c>
       <c r="N32" s="6">
-        <v>8003.0</v>
+        <v>10405.0</v>
       </c>
       <c r="O32" s="6">
-        <v>400.0</v>
+        <v>612.0</v>
       </c>
       <c r="P32" s="6">
-        <v>8403.0</v>
+        <v>11017.0</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -2655,11 +2623,9 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="8" t="e">
         <f>IF(C33="0000-00-00",NOW()-B33,C33-B33)</f>
         <v>#VALUE!</v>
@@ -2669,35 +2635,33 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="M33" s="6"/>
       <c r="N33" s="6">
-        <v>3230.0</v>
+        <v>255.0</v>
       </c>
       <c r="O33" s="6">
-        <v>74.8</v>
+        <v>2600.0</v>
       </c>
       <c r="P33" s="6">
-        <v>3304.8</v>
+        <v>2855.0</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -2711,7 +2675,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>18</v>
@@ -2725,37 +2689,37 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N34" s="6">
-        <v>6000.0</v>
+        <v>62341.5</v>
       </c>
       <c r="O34" s="6">
-        <v>16692.0</v>
+        <v>47558.2</v>
       </c>
       <c r="P34" s="6">
-        <v>22692.0</v>
+        <v>109899.7</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -2786,32 +2750,32 @@
         <v>18</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N35" s="6">
-        <v>21250.0</v>
+        <v>20697.5</v>
       </c>
       <c r="O35" s="6">
-        <v>13520.95</v>
+        <v>6470.2</v>
       </c>
       <c r="P35" s="6">
-        <v>34770.95</v>
+        <v>27167.7</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
@@ -2825,7 +2789,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>18</v>
@@ -2837,23 +2801,19 @@
       <c r="E36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="F36" s="6"/>
       <c r="G36" s="6" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>94</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J36" s="6"/>
       <c r="K36" s="6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>23</v>
@@ -2862,16 +2822,16 @@
         <v>18</v>
       </c>
       <c r="N36" s="6">
-        <v>21663.28</v>
+        <v>14620.0</v>
       </c>
       <c r="O36" s="6">
-        <v>0.0</v>
+        <v>11891.5</v>
       </c>
       <c r="P36" s="6">
-        <v>21663.28</v>
+        <v>26511.5</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
@@ -2902,14 +2862,14 @@
         <v>18</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>23</v>
@@ -2918,16 +2878,16 @@
         <v>18</v>
       </c>
       <c r="N37" s="6">
-        <v>6120.0</v>
+        <v>0.0</v>
       </c>
       <c r="O37" s="6">
-        <v>79.9</v>
+        <v>0.0</v>
       </c>
       <c r="P37" s="6">
-        <v>6199.9</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
@@ -2958,32 +2918,32 @@
         <v>18</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N38" s="6">
-        <v>9122.0</v>
+        <v>3315.0</v>
       </c>
       <c r="O38" s="6">
-        <v>9878.28</v>
+        <v>6760.34</v>
       </c>
       <c r="P38" s="6">
-        <v>19000.28</v>
+        <v>10075.34</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -3014,32 +2974,32 @@
         <v>18</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N39" s="6">
-        <v>5525.0</v>
+        <v>680.0</v>
       </c>
       <c r="O39" s="6">
-        <v>9091.6</v>
+        <v>5500.0</v>
       </c>
       <c r="P39" s="6">
-        <v>14616.6</v>
+        <v>6180.0</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
@@ -3070,32 +3030,32 @@
         <v>18</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N40" s="6">
-        <v>10285.0</v>
+        <v>2500.0</v>
       </c>
       <c r="O40" s="6">
-        <v>9235.25</v>
+        <v>0.0</v>
       </c>
       <c r="P40" s="6">
-        <v>19520.25</v>
+        <v>2500.0</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
@@ -3126,32 +3086,30 @@
         <v>18</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="M41" s="6"/>
       <c r="N41" s="6">
-        <v>1326.0</v>
+        <v>8585.0</v>
       </c>
       <c r="O41" s="6">
-        <v>5872.65</v>
+        <v>7752.5</v>
       </c>
       <c r="P41" s="6">
-        <v>7198.65</v>
+        <v>16337.5</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -3182,10 +3140,10 @@
         <v>18</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6" t="s">
@@ -3194,18 +3152,20 @@
       <c r="L42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M42" s="6"/>
+      <c r="M42" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="N42" s="6">
-        <v>0.0</v>
+        <v>510.0</v>
       </c>
       <c r="O42" s="6">
         <v>0.0</v>
       </c>
       <c r="P42" s="6">
-        <v>0.0</v>
+        <v>510.0</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -3236,32 +3196,32 @@
         <v>18</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M43" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N43" s="6">
-        <v>2336.45</v>
+        <v>340.0</v>
       </c>
       <c r="O43" s="6">
-        <v>0.0</v>
+        <v>10561.0</v>
       </c>
       <c r="P43" s="6">
-        <v>2336.45</v>
+        <v>10901.0</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -3292,32 +3252,32 @@
         <v>18</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N44" s="6">
-        <v>6613.0</v>
+        <v>5440.0</v>
       </c>
       <c r="O44" s="6">
-        <v>13583.85</v>
+        <v>2252.5</v>
       </c>
       <c r="P44" s="6">
-        <v>20196.85</v>
+        <v>7692.5</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -3348,14 +3308,14 @@
         <v>18</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>23</v>
@@ -3364,16 +3324,16 @@
         <v>18</v>
       </c>
       <c r="N45" s="6">
-        <v>9817.5</v>
+        <v>3655.0</v>
       </c>
       <c r="O45" s="6">
-        <v>21206.65</v>
+        <v>3336.25</v>
       </c>
       <c r="P45" s="6">
-        <v>31024.15</v>
+        <v>6991.25</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -3404,14 +3364,14 @@
         <v>18</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>23</v>
@@ -3420,16 +3380,16 @@
         <v>18</v>
       </c>
       <c r="N46" s="6">
-        <v>5355.0</v>
+        <v>6162.5</v>
       </c>
       <c r="O46" s="6">
-        <v>4242.35</v>
+        <v>3774.0</v>
       </c>
       <c r="P46" s="6">
-        <v>9597.35</v>
+        <v>9936.5</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -3460,14 +3420,14 @@
         <v>18</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>23</v>
@@ -3476,16 +3436,16 @@
         <v>18</v>
       </c>
       <c r="N47" s="6">
-        <v>459.0</v>
+        <v>1020.0</v>
       </c>
       <c r="O47" s="6">
-        <v>4382.6</v>
+        <v>0.0</v>
       </c>
       <c r="P47" s="6">
-        <v>4841.6</v>
+        <v>1020.0</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
@@ -3516,30 +3476,32 @@
         <v>18</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M48" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="N48" s="6">
-        <v>0.0</v>
+        <v>8585.0</v>
       </c>
       <c r="O48" s="6">
-        <v>0.0</v>
+        <v>7752.5</v>
       </c>
       <c r="P48" s="6">
-        <v>0.0</v>
+        <v>16337.5</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
@@ -3570,32 +3532,30 @@
         <v>18</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="M49" s="6"/>
       <c r="N49" s="6">
-        <v>4003.5</v>
+        <v>0.0</v>
       </c>
       <c r="O49" s="6">
-        <v>11305.0</v>
+        <v>0.0</v>
       </c>
       <c r="P49" s="6">
-        <v>15308.5</v>
+        <v>0.0</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
@@ -3626,32 +3586,30 @@
         <v>18</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="J50" s="6"/>
-      <c r="K50" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="K50" s="6"/>
       <c r="L50" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N50" s="6">
-        <v>17290.0</v>
+        <v>7735.0</v>
       </c>
       <c r="O50" s="6">
-        <v>41947.22</v>
+        <v>537.2</v>
       </c>
       <c r="P50" s="6">
-        <v>59237.22</v>
+        <v>8272.2</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
@@ -3682,14 +3640,14 @@
         <v>18</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>23</v>
@@ -3705,7 +3663,7 @@
         <v>0.0</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
@@ -3736,30 +3694,30 @@
         <v>18</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>23</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6">
-        <v>4080.0</v>
+        <v>0.0</v>
       </c>
       <c r="O52" s="6">
-        <v>2577.2</v>
+        <v>0.0</v>
       </c>
       <c r="P52" s="6">
-        <v>6657.2</v>
+        <v>0.0</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
@@ -3790,30 +3748,32 @@
         <v>18</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M53" s="6"/>
+      <c r="M53" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="N53" s="6">
-        <v>0.0</v>
+        <v>8483.0</v>
       </c>
       <c r="O53" s="6">
-        <v>0.0</v>
+        <v>15243.05</v>
       </c>
       <c r="P53" s="6">
-        <v>0.0</v>
+        <v>23726.05</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -3844,17 +3804,17 @@
         <v>18</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M54" s="6"/>
       <c r="N54" s="6">
@@ -3867,7 +3827,7 @@
         <v>0.0</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
@@ -3898,14 +3858,14 @@
         <v>18</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>23</v>
@@ -3921,7 +3881,7 @@
         <v>0.0</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
@@ -3931,407 +3891,29 @@
       <c r="W55" s="6"/>
     </row>
     <row r="56" spans="1:23">
-      <c r="A56" s="6">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="8" t="e">
-        <f>IF(C56="0000-00-00",NOW()-B56,C56-B56)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O56" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P56" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q56" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-    </row>
-    <row r="57" spans="1:23">
-      <c r="A57" s="6">
-        <v>56</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="8" t="e">
-        <f>IF(C57="0000-00-00",NOW()-B57,C57-B57)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O57" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P57" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-    </row>
-    <row r="58" spans="1:23">
-      <c r="A58" s="6">
-        <v>57</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="8" t="e">
-        <f>IF(C58="0000-00-00",NOW()-B58,C58-B58)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O58" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P58" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q58" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-    </row>
-    <row r="59" spans="1:23">
-      <c r="A59" s="6">
-        <v>58</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="8" t="e">
-        <f>IF(C59="0000-00-00",NOW()-B59,C59-B59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P59" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q59" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-    </row>
-    <row r="60" spans="1:23">
-      <c r="A60" s="6">
-        <v>59</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="8" t="e">
-        <f>IF(C60="0000-00-00",NOW()-B60,C60-B60)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O60" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P60" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-    </row>
-    <row r="61" spans="1:23">
-      <c r="A61" s="6">
-        <v>60</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8" t="e">
-        <f>IF(C61="0000-00-00",NOW()-B61,C61-B61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="N61" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O61" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P61" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-    </row>
-    <row r="62" spans="1:23">
-      <c r="A62" s="6">
-        <v>61</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8" t="e">
-        <f>IF(C62="0000-00-00",NOW()-B62,C62-B62)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="N62" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O62" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P62" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-    </row>
-    <row r="63" spans="1:23">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/public/tmp/reportCarstatus.xlsx
+++ b/public/tmp/reportCarstatus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -77,81 +77,84 @@
     <t>0000-00-00</t>
   </si>
   <si>
+    <t>เลยกำหนด</t>
+  </si>
+  <si>
+    <t>07-QC</t>
+  </si>
+  <si>
+    <t>2024-05-11</t>
+  </si>
+  <si>
+    <t>กพ5057</t>
+  </si>
+  <si>
+    <t>Triton</t>
+  </si>
+  <si>
+    <t>BP81-2404-0017</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>คุ้มภัยโตเกียว</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>สิทธิศักดิ์ กังสกุล</t>
+  </si>
+  <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
+    <t>กพ3084</t>
+  </si>
+  <si>
+    <t>GOODCAT</t>
+  </si>
+  <si>
+    <t>BP81-2406-0068</t>
+  </si>
+  <si>
+    <t>L-เบา</t>
+  </si>
+  <si>
+    <t>ธนชาต</t>
+  </si>
+  <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>7กฉ4864</t>
+  </si>
+  <si>
+    <t>BP81-2406-0011</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>ทิพยประกันภัย</t>
+  </si>
+  <si>
+    <t>ศุภวัฒน์ หลานเด็น</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
     <t>ปกติ</t>
   </si>
   <si>
-    <t>07-QC</t>
-  </si>
-  <si>
-    <t>2024-05-11</t>
-  </si>
-  <si>
-    <t>กพ5057</t>
-  </si>
-  <si>
-    <t>Triton</t>
-  </si>
-  <si>
-    <t>BP81-2404-0017</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>คุ้มภัยโตเกียว</t>
-  </si>
-  <si>
-    <t>2024-05-23</t>
-  </si>
-  <si>
-    <t>สิทธิศักดิ์ กังสกุล</t>
-  </si>
-  <si>
-    <t>2024-06-21</t>
-  </si>
-  <si>
-    <t>2024-06-27</t>
-  </si>
-  <si>
-    <t>กพ3084</t>
-  </si>
-  <si>
-    <t>GOODCAT</t>
-  </si>
-  <si>
-    <t>BP81-2406-0068</t>
-  </si>
-  <si>
-    <t>L-เบา</t>
-  </si>
-  <si>
-    <t>ธนชาต</t>
-  </si>
-  <si>
-    <t>2024-06-04</t>
-  </si>
-  <si>
-    <t>2024-06-25</t>
-  </si>
-  <si>
-    <t>7กฉ4864</t>
-  </si>
-  <si>
-    <t>BP81-2406-0011</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>ทิพยประกันภัย</t>
-  </si>
-  <si>
-    <t>ศุภวัฒน์ หลานเด็น</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
     <t>2024-07-24</t>
   </si>
   <si>
@@ -213,6 +216,15 @@
   </si>
   <si>
     <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>2ฒภ4246</t>
+  </si>
+  <si>
+    <t>BP81-2407-0010</t>
+  </si>
+  <si>
+    <t>วิริยะประกันภัย</t>
   </si>
   <si>
     <t>บย5147</t>
@@ -683,10 +695,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W16"/>
+      <selection activeCell="A2" sqref="A2:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -940,26 +952,28 @@
       <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="8" t="e">
         <f>IF(C5="0000-00-00",NOW()-B5,C5-B5)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>41</v>
@@ -992,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
@@ -1006,16 +1020,16 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>35</v>
@@ -1036,7 +1050,7 @@
         <v>1674.5</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -1050,31 +1064,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="8" t="e">
         <f>IF(C7="0000-00-00",NOW()-B7,C7-B7)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>42</v>
@@ -1090,7 +1106,7 @@
         <v>6630.0</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1104,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
@@ -1114,20 +1130,20 @@
         <v>#VALUE!</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>41</v>
@@ -1164,45 +1180,47 @@
       <c r="B9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="8" t="e">
         <f>IF(C9="0000-00-00",NOW()-B9,C9-B9)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6">
-        <v>21165.0</v>
+        <v>24692.5</v>
       </c>
       <c r="O9" s="6">
-        <v>19504.95</v>
+        <v>3774.0</v>
       </c>
       <c r="P9" s="6">
-        <v>40669.95</v>
+        <v>28466.5</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1216,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
@@ -1226,41 +1244,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>71</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M10" s="6"/>
       <c r="N10" s="6">
-        <v>29433.0</v>
+        <v>21165.0</v>
       </c>
       <c r="O10" s="6">
-        <v>61009.26</v>
+        <v>19504.95</v>
       </c>
       <c r="P10" s="6">
-        <v>90442.26</v>
+        <v>40669.95</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1274,44 +1290,48 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="8" t="e">
         <f>IF(C11="0000-00-00",NOW()-B11,C11-B11)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="N11" s="6">
-        <v>35460.0</v>
+        <v>29433.0</v>
       </c>
       <c r="O11" s="6">
-        <v>51701.94</v>
+        <v>61009.26</v>
       </c>
       <c r="P11" s="6">
-        <v>87161.94</v>
+        <v>90442.26</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>29</v>
@@ -1328,44 +1348,46 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="8" t="e">
         <f>IF(C12="0000-00-00",NOW()-B12,C12-B12)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6">
-        <v>12070.0</v>
+        <v>35460.0</v>
       </c>
       <c r="O12" s="6">
-        <v>7412.0</v>
+        <v>51701.94</v>
       </c>
       <c r="P12" s="6">
-        <v>19482.0</v>
+        <v>87161.94</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>29</v>
@@ -1382,49 +1404,49 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="8" t="e">
         <f>IF(C13="0000-00-00",NOW()-B13,C13-B13)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>83</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M13" s="6"/>
       <c r="N13" s="6">
-        <v>255.0</v>
+        <v>12070.0</v>
       </c>
       <c r="O13" s="6">
-        <v>2600.0</v>
+        <v>7412.0</v>
       </c>
       <c r="P13" s="6">
-        <v>2855.0</v>
+        <v>19482.0</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1438,7 +1460,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
@@ -1448,41 +1470,41 @@
         <v>#VALUE!</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N14" s="6">
-        <v>62341.5</v>
+        <v>255.0</v>
       </c>
       <c r="O14" s="6">
-        <v>47558.2</v>
+        <v>2600.0</v>
       </c>
       <c r="P14" s="6">
-        <v>109899.7</v>
+        <v>2855.0</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1496,47 +1518,51 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="8" t="e">
         <f>IF(C15="0000-00-00",NOW()-B15,C15-B15)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="K15" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="N15" s="6">
-        <v>680.0</v>
+        <v>62341.5</v>
       </c>
       <c r="O15" s="6">
-        <v>5500.0</v>
+        <v>47558.2</v>
       </c>
       <c r="P15" s="6">
-        <v>6180.0</v>
+        <v>109899.7</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1546,29 +1572,85 @@
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8" t="e">
+        <f>IF(C16="0000-00-00",NOW()-B16,C16-B16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="6">
+        <v>680.0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>5500.0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>6180.0</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/public/tmp/reportCarstatus.xlsx
+++ b/public/tmp/reportCarstatus.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="StatusAuditDoc" sheetId="1" r:id="rId4"/>
+    <sheet name="Month" sheetId="1" r:id="rId4"/>
+    <sheet name="StatusAuditDoc" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -71,229 +72,235 @@
     <t>หมายเหตุ</t>
   </si>
   <si>
-    <t>2024-04-06</t>
+    <t>2024-09-02</t>
   </si>
   <si>
     <t>0000-00-00</t>
   </si>
   <si>
+    <t>ปกติ</t>
+  </si>
+  <si>
+    <t>2024-09-08</t>
+  </si>
+  <si>
+    <t>ก2569</t>
+  </si>
+  <si>
+    <t>GOODCAT</t>
+  </si>
+  <si>
+    <t>BP81-2409-0006</t>
+  </si>
+  <si>
+    <t>L-เบา</t>
+  </si>
+  <si>
+    <t>วิริยะประกันภัย</t>
+  </si>
+  <si>
+    <t>สิทธิศักดิ์ กังสกุล</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+  </si>
+  <si>
     <t>เลยกำหนด</t>
   </si>
   <si>
-    <t>07-QC</t>
-  </si>
-  <si>
-    <t>2024-05-11</t>
-  </si>
-  <si>
-    <t>กพ5057</t>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>กพ5077</t>
+  </si>
+  <si>
+    <t>Pajero</t>
+  </si>
+  <si>
+    <t>BP81-2407-0078</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>คุ้มภัยโตเกียว</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>กง2651</t>
+  </si>
+  <si>
+    <t>Space Wagon</t>
+  </si>
+  <si>
+    <t>BP81-2409-0008</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>บย501</t>
   </si>
   <si>
     <t>Triton</t>
   </si>
   <si>
-    <t>BP81-2404-0017</t>
+    <t>BP81-2408-0074</t>
+  </si>
+  <si>
+    <t>M-กลาง</t>
+  </si>
+  <si>
+    <t>นวกิจ</t>
+  </si>
+  <si>
+    <t>BP81-2408-0075</t>
+  </si>
+  <si>
+    <t>BP81-2408-0076</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>กพ4434</t>
+  </si>
+  <si>
+    <t>Xpander</t>
+  </si>
+  <si>
+    <t>BP81-2409-0011</t>
+  </si>
+  <si>
+    <t>ศุภวัฒน์ หลานเด็น</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>กธ-8547</t>
+  </si>
+  <si>
+    <t>BP81-2408-0069</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>กพ4420</t>
+  </si>
+  <si>
+    <t>BP81-2409-0015</t>
+  </si>
+  <si>
+    <t>2024-08-31</t>
+  </si>
+  <si>
+    <t>กพ9402</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>BP81-2408-0097</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>8กข3121</t>
+  </si>
+  <si>
+    <t>BP81-2408-0082</t>
+  </si>
+  <si>
+    <t>BP81-2408-0083</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>กบ5413</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>คุ้มภัยโตเกียว</t>
-  </si>
-  <si>
-    <t>2024-05-23</t>
-  </si>
-  <si>
-    <t>สิทธิศักดิ์ กังสกุล</t>
-  </si>
-  <si>
-    <t>2024-06-21</t>
-  </si>
-  <si>
-    <t>2024-06-27</t>
-  </si>
-  <si>
-    <t>กพ3084</t>
-  </si>
-  <si>
-    <t>GOODCAT</t>
-  </si>
-  <si>
-    <t>BP81-2406-0068</t>
-  </si>
-  <si>
-    <t>L-เบา</t>
-  </si>
-  <si>
-    <t>ธนชาต</t>
-  </si>
-  <si>
-    <t>2024-06-04</t>
-  </si>
-  <si>
-    <t>2024-06-25</t>
-  </si>
-  <si>
-    <t>7กฉ4864</t>
-  </si>
-  <si>
-    <t>BP81-2406-0011</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>ทิพยประกันภัย</t>
-  </si>
-  <si>
-    <t>ศุภวัฒน์ หลานเด็น</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>ปกติ</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t>กน2699</t>
-  </si>
-  <si>
-    <t>Pajero</t>
-  </si>
-  <si>
-    <t>BP81-2407-0008</t>
-  </si>
-  <si>
-    <t>2024-06-07</t>
-  </si>
-  <si>
-    <t>2024-06-13</t>
-  </si>
-  <si>
-    <t>กพ5729</t>
-  </si>
-  <si>
-    <t>XPANDER</t>
-  </si>
-  <si>
-    <t>BP81-2406-0026</t>
-  </si>
-  <si>
-    <t>พัชรินทร์ ชุมนาค</t>
-  </si>
-  <si>
-    <t>2024-07-02</t>
-  </si>
-  <si>
-    <t>2024-07-16</t>
-  </si>
-  <si>
-    <t>กบ7755</t>
-  </si>
-  <si>
-    <t>ATT03</t>
-  </si>
-  <si>
-    <t>BP81-2407-0007</t>
-  </si>
-  <si>
-    <t>M-กลาง</t>
-  </si>
-  <si>
-    <t>2024-06-24</t>
-  </si>
-  <si>
-    <t>2024-07-15</t>
-  </si>
-  <si>
-    <t>กพ707</t>
-  </si>
-  <si>
-    <t>BP81-2406-0080</t>
-  </si>
-  <si>
-    <t>2024-07-17</t>
-  </si>
-  <si>
-    <t>2ฒภ4246</t>
-  </si>
-  <si>
-    <t>BP81-2407-0010</t>
-  </si>
-  <si>
-    <t>วิริยะประกันภัย</t>
-  </si>
-  <si>
-    <t>บย5147</t>
-  </si>
-  <si>
-    <t>BP81-2407-0009</t>
-  </si>
-  <si>
-    <t>นวกิจ</t>
-  </si>
-  <si>
-    <t>ก2181</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>BP81-2406-0087</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>2024-08-05</t>
-  </si>
-  <si>
-    <t>กท7926</t>
-  </si>
-  <si>
-    <t>Mirage</t>
-  </si>
-  <si>
-    <t>BP81-2407-0002</t>
-  </si>
-  <si>
-    <t>กธ9016</t>
-  </si>
-  <si>
-    <t>Xpander</t>
-  </si>
-  <si>
-    <t>BP81-2407-0003</t>
-  </si>
-  <si>
-    <t>LMG</t>
-  </si>
-  <si>
-    <t>2024-07-08</t>
-  </si>
-  <si>
-    <t>บย6228</t>
-  </si>
-  <si>
-    <t>BP81-2407-0006</t>
-  </si>
-  <si>
-    <t>2024-08-01</t>
-  </si>
-  <si>
-    <t>กน6326</t>
-  </si>
-  <si>
-    <t>BP81-2406-0091</t>
-  </si>
-  <si>
-    <t>2024-07-07</t>
-  </si>
-  <si>
-    <t>บร846</t>
+    <t>เมืองไทยประกัน</t>
+  </si>
+  <si>
+    <t>กท1111</t>
+  </si>
+  <si>
+    <t>BP81-2409-0002</t>
+  </si>
+  <si>
+    <t>2024-08-29</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2ขฒ2213</t>
+  </si>
+  <si>
+    <t>BP81-2408-0091</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>BP81-2408-0096</t>
+  </si>
+  <si>
+    <t>VIN002405</t>
+  </si>
+  <si>
+    <t>BP81-2409-0014</t>
+  </si>
+  <si>
+    <t>เคลมใน</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>กท2446</t>
+  </si>
+  <si>
+    <t>BP81-2409-0016</t>
+  </si>
+  <si>
+    <t>เงินสด</t>
+  </si>
+  <si>
+    <t>รายงานผลรวมของระยะเวลาการซ่อม</t>
   </si>
 </sst>
 </file>
@@ -695,10 +702,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W17"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A2" sqref="A2:W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -786,41 +793,37 @@
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6">
+        <v>8840.0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>22584.84</v>
+      </c>
+      <c r="P2" s="6">
+        <v>31424.84</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="6">
-        <v>76372.5</v>
-      </c>
-      <c r="O2" s="6">
-        <v>69044.59</v>
-      </c>
-      <c r="P2" s="6">
-        <v>145417.09</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -834,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>19</v>
@@ -844,41 +847,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="M3" s="6"/>
       <c r="N3" s="6">
-        <v>3910.0</v>
+        <v>142132.0</v>
       </c>
       <c r="O3" s="6">
-        <v>7929.48</v>
+        <v>209187.7</v>
       </c>
       <c r="P3" s="6">
-        <v>11839.48</v>
+        <v>351319.7</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -892,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>19</v>
@@ -906,37 +907,35 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M4" s="6"/>
       <c r="N4" s="6">
-        <v>42030.0</v>
+        <v>7260.0</v>
       </c>
       <c r="O4" s="6">
-        <v>139294.49</v>
+        <v>33442.4</v>
       </c>
       <c r="P4" s="6">
-        <v>181324.49</v>
+        <v>40702.4</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -950,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>19</v>
@@ -960,39 +959,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6">
-        <v>36762.5</v>
+        <v>2125.0</v>
       </c>
       <c r="O5" s="6">
-        <v>12325.0</v>
+        <v>9228.45</v>
       </c>
       <c r="P5" s="6">
-        <v>49087.5</v>
+        <v>11353.45</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -1006,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
@@ -1016,41 +1015,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <v>15215.0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5700.1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>20915.1</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="6">
-        <v>255.0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1419.5</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1674.5</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -1064,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
@@ -1074,39 +1071,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
-        <v>6630.0</v>
+        <v>14450.0</v>
       </c>
       <c r="O7" s="6">
-        <v>0.0</v>
+        <v>277.1</v>
       </c>
       <c r="P7" s="6">
-        <v>6630.0</v>
+        <v>14727.1</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1120,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
@@ -1130,41 +1127,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M8" s="6"/>
       <c r="N8" s="6">
-        <v>55312.0</v>
+        <v>4930.0</v>
       </c>
       <c r="O8" s="6">
-        <v>100045.09</v>
+        <v>5083.0</v>
       </c>
       <c r="P8" s="6">
-        <v>155357.09</v>
+        <v>10013.0</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1178,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>19</v>
@@ -1188,39 +1183,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6">
-        <v>24692.5</v>
+        <v>44277.5</v>
       </c>
       <c r="O9" s="6">
-        <v>3774.0</v>
+        <v>53196.4</v>
       </c>
       <c r="P9" s="6">
-        <v>28466.5</v>
+        <v>97473.9</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1234,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
@@ -1244,39 +1239,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6">
-        <v>21165.0</v>
+        <v>28560.0</v>
       </c>
       <c r="O10" s="6">
-        <v>19504.95</v>
+        <v>8109.0</v>
       </c>
       <c r="P10" s="6">
-        <v>40669.95</v>
+        <v>36669.0</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1290,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
@@ -1300,41 +1295,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <v>18615.0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>15075.69</v>
+      </c>
+      <c r="P11" s="6">
+        <v>33690.69</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="6">
-        <v>29433.0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>61009.26</v>
-      </c>
-      <c r="P11" s="6">
-        <v>90442.26</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1348,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>19</v>
@@ -1358,39 +1351,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6">
-        <v>35460.0</v>
+        <v>18785.0</v>
       </c>
       <c r="O12" s="6">
-        <v>51701.94</v>
+        <v>260.95</v>
       </c>
       <c r="P12" s="6">
-        <v>87161.94</v>
+        <v>19045.95</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1404,7 +1397,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
@@ -1414,39 +1407,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6">
-        <v>12070.0</v>
+        <v>41820.0</v>
       </c>
       <c r="O13" s="6">
-        <v>7412.0</v>
+        <v>7595.1</v>
       </c>
       <c r="P13" s="6">
-        <v>19482.0</v>
+        <v>49415.1</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1460,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
@@ -1470,41 +1463,37 @@
         <v>#VALUE!</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M14" s="6"/>
       <c r="N14" s="6">
-        <v>255.0</v>
+        <v>44767.0</v>
       </c>
       <c r="O14" s="6">
-        <v>2600.0</v>
+        <v>142349.09</v>
       </c>
       <c r="P14" s="6">
-        <v>2855.0</v>
+        <v>187116.09</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1518,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>19</v>
@@ -1528,41 +1517,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M15" s="6"/>
       <c r="N15" s="6">
-        <v>62341.5</v>
+        <v>7973.0</v>
       </c>
       <c r="O15" s="6">
-        <v>47558.2</v>
+        <v>4716.5</v>
       </c>
       <c r="P15" s="6">
-        <v>109899.7</v>
+        <v>12689.5</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1576,7 +1563,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
@@ -1586,39 +1573,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="K16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="M16" s="6"/>
       <c r="N16" s="6">
-        <v>680.0</v>
+        <v>25330.0</v>
       </c>
       <c r="O16" s="6">
-        <v>5500.0</v>
+        <v>13702.85</v>
       </c>
       <c r="P16" s="6">
-        <v>6180.0</v>
+        <v>39032.85</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1628,29 +1615,197 @@
       <c r="W16" s="6"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8" t="e">
+        <f>IF(C17="0000-00-00",NOW()-B17,C17-B17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6">
+        <v>8585.0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>511.7</v>
+      </c>
+      <c r="P17" s="6">
+        <v>9096.7</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8" t="e">
+        <f>IF(C18="0000-00-00",NOW()-B18,C18-B18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6">
+        <v>3096.0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>3096.0</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8" t="e">
+        <f>IF(C19="0000-00-00",NOW()-B19,C19-B19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1412.5</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1412.5</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1661,4 +1816,273 @@
     <oddFooter>&amp;L&amp;BOffice 2007 XLSX &amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader>&amp;L&amp;BInvoice&amp;RPrinted on &amp;D</oddHeader>
+    <oddFooter>&amp;L&amp;BOffice 2007 XLSX &amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/public/tmp/reportCarstatus.xlsx
+++ b/public/tmp/reportCarstatus.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Month" sheetId="1" r:id="rId4"/>
+    <sheet name="repair total day" sheetId="1" r:id="rId4"/>
     <sheet name="StatusAuditDoc" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>#</t>
   </si>
@@ -72,7 +72,7 @@
     <t>หมายเหตุ</t>
   </si>
   <si>
-    <t>2024-09-02</t>
+    <t>2024-09-09</t>
   </si>
   <si>
     <t>0000-00-00</t>
@@ -81,16 +81,16 @@
     <t>ปกติ</t>
   </si>
   <si>
-    <t>2024-09-08</t>
-  </si>
-  <si>
-    <t>ก2569</t>
-  </si>
-  <si>
-    <t>GOODCAT</t>
-  </si>
-  <si>
-    <t>BP81-2409-0006</t>
+    <t>2024-09-15</t>
+  </si>
+  <si>
+    <t>กธ737</t>
+  </si>
+  <si>
+    <t>Pajero</t>
+  </si>
+  <si>
+    <t>BP81-2409-0018</t>
   </si>
   <si>
     <t>L-เบา</t>
@@ -99,39 +99,36 @@
     <t>วิริยะประกันภัย</t>
   </si>
   <si>
+    <t>ศุภวัฒน์ หลานเด็น</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+  </si>
+  <si>
+    <t>เลยกำหนด</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>กพ5077</t>
+  </si>
+  <si>
+    <t>BP81-2407-0078</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>คุ้มภัยโตเกียว</t>
+  </si>
+  <si>
     <t>สิทธิศักดิ์ กังสกุล</t>
   </si>
   <si>
-    <t>2024-07-31</t>
-  </si>
-  <si>
-    <t>เลยกำหนด</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>กพ5077</t>
-  </si>
-  <si>
-    <t>Pajero</t>
-  </si>
-  <si>
-    <t>BP81-2407-0078</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>คุ้มภัยโตเกียว</t>
-  </si>
-  <si>
     <t>2024-09-03</t>
   </si>
   <si>
-    <t>2024-09-09</t>
-  </si>
-  <si>
     <t>กง2651</t>
   </si>
   <si>
@@ -141,6 +138,24 @@
     <t>BP81-2409-0008</t>
   </si>
   <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>กพ6164</t>
+  </si>
+  <si>
+    <t>DOLPHIN</t>
+  </si>
+  <si>
+    <t>BP81-2409-0025</t>
+  </si>
+  <si>
+    <t>M-กลาง</t>
+  </si>
+  <si>
+    <t>ทิพยประกันภัย</t>
+  </si>
+  <si>
     <t>2024-08-26</t>
   </si>
   <si>
@@ -153,9 +168,6 @@
     <t>BP81-2408-0074</t>
   </si>
   <si>
-    <t>M-กลาง</t>
-  </si>
-  <si>
     <t>นวกิจ</t>
   </si>
   <si>
@@ -165,30 +177,15 @@
     <t>BP81-2408-0076</t>
   </si>
   <si>
-    <t>2024-09-05</t>
-  </si>
-  <si>
-    <t>2024-09-11</t>
-  </si>
-  <si>
-    <t>กพ4434</t>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>กธ-8547</t>
   </si>
   <si>
     <t>Xpander</t>
   </si>
   <si>
-    <t>BP81-2409-0011</t>
-  </si>
-  <si>
-    <t>ศุภวัฒน์ หลานเด็น</t>
-  </si>
-  <si>
-    <t>2024-09-16</t>
-  </si>
-  <si>
-    <t>กธ-8547</t>
-  </si>
-  <si>
     <t>BP81-2408-0069</t>
   </si>
   <si>
@@ -207,6 +204,15 @@
     <t>BP81-2409-0015</t>
   </si>
   <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>กพ1021</t>
+  </si>
+  <si>
+    <t>BP81-2409-0026</t>
+  </si>
+  <si>
     <t>2024-08-31</t>
   </si>
   <si>
@@ -234,6 +240,9 @@
     <t>BP81-2408-0083</t>
   </si>
   <si>
+    <t>09-09-2567 สั่งอะไหล่เพิ่มเติม (คิ้วกันชนหน้าตัวล่างขวา)</t>
+  </si>
+  <si>
     <t>2024-09-04</t>
   </si>
   <si>
@@ -249,10 +258,25 @@
     <t>เมืองไทยประกัน</t>
   </si>
   <si>
-    <t>กท1111</t>
-  </si>
-  <si>
-    <t>BP81-2409-0002</t>
+    <t>กน4856</t>
+  </si>
+  <si>
+    <t>BP81-2409-0023</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>กบ209</t>
+  </si>
+  <si>
+    <t>BP81-2409-0022</t>
+  </si>
+  <si>
+    <t>VIN002704</t>
+  </si>
+  <si>
+    <t>BP81-2409-0019</t>
   </si>
   <si>
     <t>2024-08-29</t>
@@ -267,6 +291,9 @@
     <t>BP81-2408-0091</t>
   </si>
   <si>
+    <t>รอเสนอตรวจเช็คกระจกมองข้างพิ่มเติม</t>
+  </si>
+  <si>
     <t>2024-08-30</t>
   </si>
   <si>
@@ -276,28 +303,22 @@
     <t>BP81-2408-0096</t>
   </si>
   <si>
-    <t>VIN002405</t>
-  </si>
-  <si>
-    <t>BP81-2409-0014</t>
-  </si>
-  <si>
-    <t>เคลมใน</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>2024-09-13</t>
-  </si>
-  <si>
-    <t>กท2446</t>
-  </si>
-  <si>
-    <t>BP81-2409-0016</t>
-  </si>
-  <si>
-    <t>เงินสด</t>
+    <t>บย2898</t>
+  </si>
+  <si>
+    <t>BP81-2409-0020</t>
+  </si>
+  <si>
+    <t>09-09-2567 ขออนุมัติรายการอะไหล่เพิ่มเติม(	กันชนเสริมหน้า)</t>
+  </si>
+  <si>
+    <t>ก2057</t>
+  </si>
+  <si>
+    <t>BP81-2409-0021</t>
+  </si>
+  <si>
+    <t>มิตซู ชูเกียรติ กระบี่</t>
   </si>
   <si>
     <t>รายงานผลรวมของระยะเวลาการซ่อม</t>
@@ -702,10 +723,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W20"/>
+      <selection activeCell="A2" sqref="A2:W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -786,9 +807,8 @@
       <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="e">
-        <f>IF(C2="0000-00-00",NOW()-B2,C2-B2)</f>
-        <v>#VALUE!</v>
+      <c r="D2" s="8">
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
@@ -814,13 +834,13 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6">
-        <v>8840.0</v>
+        <v>6273.0</v>
       </c>
       <c r="O2" s="6">
-        <v>22584.84</v>
+        <v>0.0</v>
       </c>
       <c r="P2" s="6">
-        <v>31424.84</v>
+        <v>6273.0</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>27</v>
@@ -842,9 +862,8 @@
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="e">
-        <f>IF(C3="0000-00-00",NOW()-B3,C3-B3)</f>
-        <v>#VALUE!</v>
+      <c r="D3" s="8">
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>29</v>
@@ -857,16 +876,16 @@
         <v>31</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6">
@@ -879,7 +898,7 @@
         <v>351319.7</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -898,31 +917,30 @@
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="e">
-        <f>IF(C4="0000-00-00",NOW()-B4,C4-B4)</f>
-        <v>#VALUE!</v>
+      <c r="D4" s="8">
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6">
@@ -935,7 +953,7 @@
         <v>40702.4</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -949,46 +967,45 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="e">
-        <f>IF(C5="0000-00-00",NOW()-B5,C5-B5)</f>
-        <v>#VALUE!</v>
+      <c r="D5" s="8">
+        <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6">
-        <v>2125.0</v>
+        <v>16607.5</v>
       </c>
       <c r="O5" s="6">
-        <v>9228.45</v>
+        <v>0.0</v>
       </c>
       <c r="P5" s="6">
-        <v>11353.45</v>
+        <v>16607.5</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>27</v>
@@ -1005,49 +1022,48 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="e">
-        <f>IF(C6="0000-00-00",NOW()-B6,C6-B6)</f>
-        <v>#VALUE!</v>
+      <c r="D6" s="8">
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6">
-        <v>15215.0</v>
+        <v>2125.0</v>
       </c>
       <c r="O6" s="6">
-        <v>5700.1</v>
+        <v>9228.45</v>
       </c>
       <c r="P6" s="6">
-        <v>20915.1</v>
+        <v>11353.45</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -1061,49 +1077,48 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="e">
-        <f>IF(C7="0000-00-00",NOW()-B7,C7-B7)</f>
-        <v>#VALUE!</v>
+      <c r="D7" s="8">
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
-        <v>14450.0</v>
+        <v>15215.0</v>
       </c>
       <c r="O7" s="6">
-        <v>277.1</v>
+        <v>5700.1</v>
       </c>
       <c r="P7" s="6">
-        <v>14727.1</v>
+        <v>20915.1</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1117,49 +1132,48 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="e">
-        <f>IF(C8="0000-00-00",NOW()-B8,C8-B8)</f>
-        <v>#VALUE!</v>
+      <c r="D8" s="8">
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6">
-        <v>4930.0</v>
+        <v>14450.0</v>
       </c>
       <c r="O8" s="6">
-        <v>5083.0</v>
+        <v>277.1</v>
       </c>
       <c r="P8" s="6">
-        <v>10013.0</v>
+        <v>14727.1</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1173,36 +1187,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="e">
-        <f>IF(C9="0000-00-00",NOW()-B9,C9-B9)</f>
-        <v>#VALUE!</v>
+      <c r="D9" s="8">
+        <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="L9" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6">
@@ -1215,7 +1228,7 @@
         <v>97473.9</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1229,36 +1242,35 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="e">
-        <f>IF(C10="0000-00-00",NOW()-B10,C10-B10)</f>
-        <v>#VALUE!</v>
+      <c r="D10" s="8">
+        <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="K10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6">
@@ -1271,7 +1283,7 @@
         <v>36669.0</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1285,49 +1297,48 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="e">
-        <f>IF(C11="0000-00-00",NOW()-B11,C11-B11)</f>
-        <v>#VALUE!</v>
+      <c r="D11" s="8">
+        <v>3</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K11" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6">
-        <v>18615.0</v>
+        <v>1020.0</v>
       </c>
       <c r="O11" s="6">
-        <v>15075.69</v>
+        <v>0.0</v>
       </c>
       <c r="P11" s="6">
-        <v>33690.69</v>
+        <v>1020.0</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1341,49 +1352,48 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8" t="e">
-        <f>IF(C12="0000-00-00",NOW()-B12,C12-B12)</f>
-        <v>#VALUE!</v>
+      <c r="D12" s="8">
+        <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="K12" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6">
-        <v>18785.0</v>
+        <v>18615.0</v>
       </c>
       <c r="O12" s="6">
-        <v>260.95</v>
+        <v>15075.69</v>
       </c>
       <c r="P12" s="6">
-        <v>19045.95</v>
+        <v>33690.69</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1397,49 +1407,48 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="e">
-        <f>IF(C13="0000-00-00",NOW()-B13,C13-B13)</f>
-        <v>#VALUE!</v>
+      <c r="D13" s="8">
+        <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6">
-        <v>41820.0</v>
+        <v>18785.0</v>
       </c>
       <c r="O13" s="6">
-        <v>7595.1</v>
+        <v>260.95</v>
       </c>
       <c r="P13" s="6">
-        <v>49415.1</v>
+        <v>19045.95</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1453,49 +1462,52 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="8" t="e">
-        <f>IF(C14="0000-00-00",NOW()-B14,C14-B14)</f>
-        <v>#VALUE!</v>
+      <c r="D14" s="8">
+        <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6">
-        <v>44767.0</v>
+        <v>41820.0</v>
       </c>
       <c r="O14" s="6">
-        <v>142349.09</v>
+        <v>7595.1</v>
       </c>
       <c r="P14" s="6">
-        <v>187116.09</v>
+        <v>49415.1</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R14" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -1507,49 +1519,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8" t="e">
-        <f>IF(C15="0000-00-00",NOW()-B15,C15-B15)</f>
-        <v>#VALUE!</v>
+      <c r="D15" s="8">
+        <v>6</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>77</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="L15" s="6" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6">
-        <v>7973.0</v>
+        <v>44767.0</v>
       </c>
       <c r="O15" s="6">
-        <v>4716.5</v>
+        <v>142349.09</v>
       </c>
       <c r="P15" s="6">
-        <v>12689.5</v>
+        <v>187116.09</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1563,49 +1572,48 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8" t="e">
-        <f>IF(C16="0000-00-00",NOW()-B16,C16-B16)</f>
-        <v>#VALUE!</v>
+      <c r="D16" s="8">
+        <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="K16" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6">
-        <v>25330.0</v>
+        <v>8313.0</v>
       </c>
       <c r="O16" s="6">
-        <v>13702.85</v>
+        <v>6920.7</v>
       </c>
       <c r="P16" s="6">
-        <v>39032.85</v>
+        <v>15233.7</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1619,49 +1627,48 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="8" t="e">
-        <f>IF(C17="0000-00-00",NOW()-B17,C17-B17)</f>
-        <v>#VALUE!</v>
+      <c r="D17" s="8">
+        <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="K17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6">
-        <v>8585.0</v>
+        <v>25372.5</v>
       </c>
       <c r="O17" s="6">
-        <v>511.7</v>
+        <v>15928.15</v>
       </c>
       <c r="P17" s="6">
-        <v>9096.7</v>
+        <v>41300.65</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1675,49 +1682,48 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8" t="e">
-        <f>IF(C18="0000-00-00",NOW()-B18,C18-B18)</f>
-        <v>#VALUE!</v>
+      <c r="D18" s="8">
+        <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6">
-        <v>3096.0</v>
+        <v>12707.5</v>
       </c>
       <c r="O18" s="6">
-        <v>0.0</v>
+        <v>6747.3</v>
       </c>
       <c r="P18" s="6">
-        <v>3096.0</v>
+        <v>19454.8</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1731,51 +1737,52 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8" t="e">
-        <f>IF(C19="0000-00-00",NOW()-B19,C19-B19)</f>
-        <v>#VALUE!</v>
+      <c r="D19" s="8">
+        <v>12</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="K19" s="6" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6">
-        <v>0.0</v>
+        <v>25330.0</v>
       </c>
       <c r="O19" s="6">
-        <v>1412.5</v>
+        <v>13702.85</v>
       </c>
       <c r="P19" s="6">
-        <v>1412.5</v>
+        <v>39032.85</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="6"/>
+      <c r="R19" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -1783,29 +1790,198 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6">
+        <v>8585.0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>511.7</v>
+      </c>
+      <c r="P20" s="6">
+        <v>9096.7</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="6">
+        <v>935.0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>8937.85</v>
+      </c>
+      <c r="P21" s="6">
+        <v>9872.85</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6">
+        <v>5000.0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>5000.0</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1823,7 +1999,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1839,7 +2015,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1847,148 +2023,148 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>0</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1996,81 +2172,117 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
         <v>0</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>0</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>0</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/public/tmp/reportCarstatus.xlsx
+++ b/public/tmp/reportCarstatus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>#</t>
   </si>
@@ -102,205 +102,187 @@
     <t>ศุภวัฒน์ หลานเด็น</t>
   </si>
   <si>
-    <t>2024-07-31</t>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>กพ6164</t>
+  </si>
+  <si>
+    <t>DOLPHIN</t>
+  </si>
+  <si>
+    <t>BP81-2409-0025</t>
+  </si>
+  <si>
+    <t>M-กลาง</t>
+  </si>
+  <si>
+    <t>ทิพยประกันภัย</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>กธ-8547</t>
+  </si>
+  <si>
+    <t>Xpander</t>
+  </si>
+  <si>
+    <t>BP81-2408-0069</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>นวกิจ</t>
+  </si>
+  <si>
+    <t>สิทธิศักดิ์ กังสกุล</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>กพ4420</t>
+  </si>
+  <si>
+    <t>Triton</t>
+  </si>
+  <si>
+    <t>BP81-2409-0015</t>
+  </si>
+  <si>
+    <t>คุ้มภัยโตเกียว</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>กพ1021</t>
+  </si>
+  <si>
+    <t>BP81-2409-0026</t>
+  </si>
+  <si>
+    <t>2024-08-31</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>กพ9402</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>BP81-2408-0097</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>8กข3121</t>
+  </si>
+  <si>
+    <t>BP81-2408-0082</t>
+  </si>
+  <si>
+    <t>BP81-2408-0083</t>
+  </si>
+  <si>
+    <t>09-09-2567 สั่งอะไหล่เพิ่มเติม (คิ้วกันชนหน้าตัวล่างขวา)</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>กบ5413</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>เมืองไทยประกัน</t>
+  </si>
+  <si>
+    <t>กน4856</t>
+  </si>
+  <si>
+    <t>BP81-2409-0023</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>กบ209</t>
+  </si>
+  <si>
+    <t>BP81-2409-0022</t>
+  </si>
+  <si>
+    <t>10-09-2567 ขออนุมัติเพิ่มเติม (สั่งอะไหล่เพิ่มเติมฝากระบะท้าย,บานพับ,กันชนหลัง,โคลงกันชนหลัง)</t>
+  </si>
+  <si>
+    <t>4ขพ842</t>
+  </si>
+  <si>
+    <t>Jolion</t>
+  </si>
+  <si>
+    <t>BP81-2409-0029</t>
+  </si>
+  <si>
+    <t>VIN002704</t>
+  </si>
+  <si>
+    <t>BP81-2409-0019</t>
+  </si>
+  <si>
+    <t>10-9-2567 รายการอนุมัติค่าแรงเพิ่มเติม(เบ้าไฟท้าย,ซับในกระบะ)</t>
+  </si>
+  <si>
+    <t>2024-08-29</t>
   </si>
   <si>
     <t>เลยกำหนด</t>
   </si>
   <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>กพ5077</t>
-  </si>
-  <si>
-    <t>BP81-2407-0078</t>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2ขฒ2213</t>
+  </si>
+  <si>
+    <t>BP81-2408-0091</t>
+  </si>
+  <si>
+    <t>รอเสนอตรวจเช็คกระจกมองข้างพิ่มเติม</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>BP81-2408-0096</t>
   </si>
   <si>
     <t>H3</t>
-  </si>
-  <si>
-    <t>คุ้มภัยโตเกียว</t>
-  </si>
-  <si>
-    <t>สิทธิศักดิ์ กังสกุล</t>
-  </si>
-  <si>
-    <t>2024-09-03</t>
-  </si>
-  <si>
-    <t>กง2651</t>
-  </si>
-  <si>
-    <t>Space Wagon</t>
-  </si>
-  <si>
-    <t>BP81-2409-0008</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>กพ6164</t>
-  </si>
-  <si>
-    <t>DOLPHIN</t>
-  </si>
-  <si>
-    <t>BP81-2409-0025</t>
-  </si>
-  <si>
-    <t>M-กลาง</t>
-  </si>
-  <si>
-    <t>ทิพยประกันภัย</t>
-  </si>
-  <si>
-    <t>2024-08-26</t>
-  </si>
-  <si>
-    <t>บย501</t>
-  </si>
-  <si>
-    <t>Triton</t>
-  </si>
-  <si>
-    <t>BP81-2408-0074</t>
-  </si>
-  <si>
-    <t>นวกิจ</t>
-  </si>
-  <si>
-    <t>BP81-2408-0075</t>
-  </si>
-  <si>
-    <t>BP81-2408-0076</t>
-  </si>
-  <si>
-    <t>2024-09-16</t>
-  </si>
-  <si>
-    <t>กธ-8547</t>
-  </si>
-  <si>
-    <t>Xpander</t>
-  </si>
-  <si>
-    <t>BP81-2408-0069</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>2024-09-06</t>
-  </si>
-  <si>
-    <t>2024-09-20</t>
-  </si>
-  <si>
-    <t>กพ4420</t>
-  </si>
-  <si>
-    <t>BP81-2409-0015</t>
-  </si>
-  <si>
-    <t>2024-09-10</t>
-  </si>
-  <si>
-    <t>กพ1021</t>
-  </si>
-  <si>
-    <t>BP81-2409-0026</t>
-  </si>
-  <si>
-    <t>2024-08-31</t>
-  </si>
-  <si>
-    <t>กพ9402</t>
-  </si>
-  <si>
-    <t>Mirage</t>
-  </si>
-  <si>
-    <t>BP81-2408-0097</t>
-  </si>
-  <si>
-    <t>2024-08-28</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>8กข3121</t>
-  </si>
-  <si>
-    <t>BP81-2408-0082</t>
-  </si>
-  <si>
-    <t>BP81-2408-0083</t>
-  </si>
-  <si>
-    <t>09-09-2567 สั่งอะไหล่เพิ่มเติม (คิ้วกันชนหน้าตัวล่างขวา)</t>
-  </si>
-  <si>
-    <t>2024-09-04</t>
-  </si>
-  <si>
-    <t>2024-10-09</t>
-  </si>
-  <si>
-    <t>กบ5413</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>เมืองไทยประกัน</t>
-  </si>
-  <si>
-    <t>กน4856</t>
-  </si>
-  <si>
-    <t>BP81-2409-0023</t>
-  </si>
-  <si>
-    <t>2024-09-30</t>
-  </si>
-  <si>
-    <t>กบ209</t>
-  </si>
-  <si>
-    <t>BP81-2409-0022</t>
-  </si>
-  <si>
-    <t>VIN002704</t>
-  </si>
-  <si>
-    <t>BP81-2409-0019</t>
-  </si>
-  <si>
-    <t>2024-08-29</t>
-  </si>
-  <si>
-    <t>2024-09-12</t>
-  </si>
-  <si>
-    <t>2ขฒ2213</t>
-  </si>
-  <si>
-    <t>BP81-2408-0091</t>
-  </si>
-  <si>
-    <t>รอเสนอตรวจเช็คกระจกมองข้างพิ่มเติม</t>
-  </si>
-  <si>
-    <t>2024-08-30</t>
-  </si>
-  <si>
-    <t>2024-10-14</t>
-  </si>
-  <si>
-    <t>BP81-2408-0096</t>
   </si>
   <si>
     <t>บย2898</t>
@@ -723,10 +705,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W23"/>
+      <selection activeCell="A2" sqref="A2:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -808,7 +790,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
@@ -857,48 +839,48 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6">
-        <v>142132.0</v>
+        <v>16607.5</v>
       </c>
       <c r="O3" s="6">
-        <v>209187.7</v>
+        <v>0.0</v>
       </c>
       <c r="P3" s="6">
-        <v>351319.7</v>
+        <v>16607.5</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -912,48 +894,48 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6">
-        <v>7260.0</v>
+        <v>44277.5</v>
       </c>
       <c r="O4" s="6">
-        <v>33442.4</v>
+        <v>53196.4</v>
       </c>
       <c r="P4" s="6">
-        <v>40702.4</v>
+        <v>97473.9</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -967,45 +949,45 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6">
-        <v>16607.5</v>
+        <v>28560.0</v>
       </c>
       <c r="O5" s="6">
-        <v>0.0</v>
+        <v>8109.0</v>
       </c>
       <c r="P5" s="6">
-        <v>16607.5</v>
+        <v>36669.0</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>27</v>
@@ -1022,48 +1004,48 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6">
-        <v>2125.0</v>
+        <v>1020.0</v>
       </c>
       <c r="O6" s="6">
-        <v>9228.45</v>
+        <v>0.0</v>
       </c>
       <c r="P6" s="6">
-        <v>11353.45</v>
+        <v>1020.0</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -1077,48 +1059,48 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
-        <v>15215.0</v>
+        <v>18615.0</v>
       </c>
       <c r="O7" s="6">
-        <v>5700.1</v>
+        <v>15075.69</v>
       </c>
       <c r="P7" s="6">
-        <v>20915.1</v>
+        <v>33690.69</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1132,48 +1114,48 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6">
-        <v>14450.0</v>
+        <v>18785.0</v>
       </c>
       <c r="O8" s="6">
-        <v>277.1</v>
+        <v>260.95</v>
       </c>
       <c r="P8" s="6">
-        <v>14727.1</v>
+        <v>19045.95</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1187,50 +1169,52 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6">
-        <v>44277.5</v>
+        <v>41820.0</v>
       </c>
       <c r="O9" s="6">
-        <v>53196.4</v>
+        <v>7595.1</v>
       </c>
       <c r="P9" s="6">
-        <v>97473.9</v>
+        <v>49415.1</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -1242,45 +1226,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6">
-        <v>28560.0</v>
+        <v>44767.0</v>
       </c>
       <c r="O10" s="6">
-        <v>8109.0</v>
+        <v>142349.09</v>
       </c>
       <c r="P10" s="6">
-        <v>36669.0</v>
+        <v>187116.09</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>27</v>
@@ -1297,48 +1279,48 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6">
-        <v>1020.0</v>
+        <v>8313.0</v>
       </c>
       <c r="O11" s="6">
-        <v>0.0</v>
+        <v>6920.7</v>
       </c>
       <c r="P11" s="6">
-        <v>1020.0</v>
+        <v>15233.7</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1352,50 +1334,52 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6">
-        <v>18615.0</v>
+        <v>25372.5</v>
       </c>
       <c r="O12" s="6">
-        <v>15075.69</v>
+        <v>15928.15</v>
       </c>
       <c r="P12" s="6">
-        <v>33690.69</v>
+        <v>41300.65</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -1407,48 +1391,48 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6">
-        <v>18785.0</v>
+        <v>5770.0</v>
       </c>
       <c r="O13" s="6">
-        <v>260.95</v>
+        <v>27367.42</v>
       </c>
       <c r="P13" s="6">
-        <v>19045.95</v>
+        <v>33137.42</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1462,51 +1446,51 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6">
-        <v>41820.0</v>
+        <v>18785.0</v>
       </c>
       <c r="O14" s="6">
-        <v>7595.1</v>
+        <v>6747.3</v>
       </c>
       <c r="P14" s="6">
-        <v>49415.1</v>
+        <v>25532.3</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -1519,48 +1503,52 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="K15" s="6" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6">
-        <v>44767.0</v>
+        <v>25330.0</v>
       </c>
       <c r="O15" s="6">
-        <v>142349.09</v>
+        <v>13702.85</v>
       </c>
       <c r="P15" s="6">
-        <v>187116.09</v>
+        <v>39032.85</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="6"/>
+      <c r="R15" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -1572,48 +1560,48 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6">
-        <v>8313.0</v>
+        <v>8585.0</v>
       </c>
       <c r="O16" s="6">
-        <v>6920.7</v>
+        <v>511.7</v>
       </c>
       <c r="P16" s="6">
-        <v>15233.7</v>
+        <v>9096.7</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1633,44 +1621,48 @@
         <v>19</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="N17" s="6">
-        <v>25372.5</v>
+        <v>935.0</v>
       </c>
       <c r="O17" s="6">
-        <v>15928.15</v>
+        <v>8937.85</v>
       </c>
       <c r="P17" s="6">
-        <v>41300.65</v>
+        <v>9872.85</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -1688,7 +1680,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
@@ -1698,32 +1690,32 @@
         <v>21</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6">
-        <v>12707.5</v>
+        <v>5000.0</v>
       </c>
       <c r="O18" s="6">
-        <v>6747.3</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="6">
-        <v>19454.8</v>
+        <v>5000.0</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1733,255 +1725,29 @@
       <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="8">
-        <v>12</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6">
-        <v>25330.0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>13702.85</v>
-      </c>
-      <c r="P19" s="6">
-        <v>39032.85</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="8">
-        <v>11</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6">
-        <v>8585.0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>511.7</v>
-      </c>
-      <c r="P20" s="6">
-        <v>9096.7</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="6">
-        <v>935.0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>8937.85</v>
-      </c>
-      <c r="P21" s="6">
-        <v>9872.85</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6">
-        <v>5000.0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>5000.0</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1999,7 +1765,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,7 +1781,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2026,69 +1792,69 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2096,53 +1862,53 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2150,70 +1916,70 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
         <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2221,10 +1987,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2232,57 +1998,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/tmp/reportCarstatus.xlsx
+++ b/public/tmp/reportCarstatus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -102,6 +102,24 @@
     <t>ศุภวัฒน์ หลานเด็น</t>
   </si>
   <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>2024-09-17</t>
+  </si>
+  <si>
+    <t>กท3</t>
+  </si>
+  <si>
+    <t>ATTO 3</t>
+  </si>
+  <si>
+    <t>BP81-2409-0032</t>
+  </si>
+  <si>
+    <t>คุ้มภัยโตเกียว</t>
+  </si>
+  <si>
     <t>2024-09-23</t>
   </si>
   <si>
@@ -159,84 +177,84 @@
     <t>BP81-2409-0015</t>
   </si>
   <si>
-    <t>คุ้มภัยโตเกียว</t>
+    <t>2024-08-31</t>
+  </si>
+  <si>
+    <t>เลยกำหนด</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>กพ9402</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>BP81-2408-0097</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>8กข3121</t>
+  </si>
+  <si>
+    <t>BP81-2408-0082</t>
+  </si>
+  <si>
+    <t>BP81-2408-0083</t>
+  </si>
+  <si>
+    <t>09-09-2567 สั่งอะไหล่เพิ่มเติม (คิ้วกันชนหน้าตัวล่างขวา)</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>กบ5413</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>เมืองไทยประกัน</t>
+  </si>
+  <si>
+    <t>BP81-2409-0033</t>
+  </si>
+  <si>
+    <t>BP81-2409-0034</t>
+  </si>
+  <si>
+    <t>กน4856</t>
+  </si>
+  <si>
+    <t>BP81-2409-0023</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>กบ209</t>
+  </si>
+  <si>
+    <t>BP81-2409-0022</t>
+  </si>
+  <si>
+    <t>10-09-2567 ขออนุมัติเพิ่มเติม (สั่งอะไหล่เพิ่มเติมฝากระบะท้าย,บานพับ,กันชนหลัง,โคลงกันชนหลัง)</t>
   </si>
   <si>
     <t>2024-09-10</t>
   </si>
   <si>
-    <t>กพ1021</t>
-  </si>
-  <si>
-    <t>BP81-2409-0026</t>
-  </si>
-  <si>
-    <t>2024-08-31</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>กพ9402</t>
-  </si>
-  <si>
-    <t>Mirage</t>
-  </si>
-  <si>
-    <t>BP81-2408-0097</t>
-  </si>
-  <si>
-    <t>2024-08-28</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>8กข3121</t>
-  </si>
-  <si>
-    <t>BP81-2408-0082</t>
-  </si>
-  <si>
-    <t>BP81-2408-0083</t>
-  </si>
-  <si>
-    <t>09-09-2567 สั่งอะไหล่เพิ่มเติม (คิ้วกันชนหน้าตัวล่างขวา)</t>
-  </si>
-  <si>
-    <t>2024-09-04</t>
-  </si>
-  <si>
-    <t>2024-10-09</t>
-  </si>
-  <si>
-    <t>กบ5413</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>เมืองไทยประกัน</t>
-  </si>
-  <si>
-    <t>กน4856</t>
-  </si>
-  <si>
-    <t>BP81-2409-0023</t>
-  </si>
-  <si>
-    <t>2024-09-30</t>
-  </si>
-  <si>
-    <t>กบ209</t>
-  </si>
-  <si>
-    <t>BP81-2409-0022</t>
-  </si>
-  <si>
-    <t>10-09-2567 ขออนุมัติเพิ่มเติม (สั่งอะไหล่เพิ่มเติมฝากระบะท้าย,บานพับ,กันชนหลัง,โคลงกันชนหลัง)</t>
-  </si>
-  <si>
     <t>4ขพ842</t>
   </si>
   <si>
@@ -258,9 +276,6 @@
     <t>2024-08-29</t>
   </si>
   <si>
-    <t>เลยกำหนด</t>
-  </si>
-  <si>
     <t>2024-09-12</t>
   </si>
   <si>
@@ -285,6 +300,15 @@
     <t>H3</t>
   </si>
   <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>7กด4315 ( 2 )</t>
+  </si>
+  <si>
+    <t>BP81-2409-0030</t>
+  </si>
+  <si>
     <t>บย2898</t>
   </si>
   <si>
@@ -294,16 +318,28 @@
     <t>09-09-2567 ขออนุมัติรายการอะไหล่เพิ่มเติม(	กันชนเสริมหน้า)</t>
   </si>
   <si>
-    <t>ก2057</t>
-  </si>
-  <si>
-    <t>BP81-2409-0021</t>
-  </si>
-  <si>
-    <t>มิตซู ชูเกียรติ กระบี่</t>
+    <t>7กด4315 ( 3 )</t>
+  </si>
+  <si>
+    <t>BP81-2409-0031</t>
   </si>
   <si>
     <t>รายงานผลรวมของระยะเวลาการซ่อม</t>
+  </si>
+  <si>
+    <t>H1 (50)</t>
+  </si>
+  <si>
+    <t>H2 (8)</t>
+  </si>
+  <si>
+    <t>H3 (13)</t>
+  </si>
+  <si>
+    <t>L-เบา (28)</t>
+  </si>
+  <si>
+    <t>M-กลาง (38)</t>
   </si>
 </sst>
 </file>
@@ -352,7 +388,7 @@
       <name val="Candara"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +397,12 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffb703"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -375,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -406,6 +448,7 @@
     <xf xfId="0" fontId="3" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +748,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W19"/>
+      <selection activeCell="A2" sqref="A2:W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -790,7 +833,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
@@ -839,45 +882,45 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6">
-        <v>16607.5</v>
+        <v>3575.0</v>
       </c>
       <c r="O3" s="6">
         <v>0.0</v>
       </c>
       <c r="P3" s="6">
-        <v>16607.5</v>
+        <v>3575.0</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>27</v>
@@ -894,48 +937,48 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6">
-        <v>44277.5</v>
+        <v>16607.5</v>
       </c>
       <c r="O4" s="6">
-        <v>53196.4</v>
+        <v>0.0</v>
       </c>
       <c r="P4" s="6">
-        <v>97473.9</v>
+        <v>16607.5</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -949,48 +992,48 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6">
-        <v>28560.0</v>
+        <v>44277.5</v>
       </c>
       <c r="O5" s="6">
-        <v>8109.0</v>
+        <v>53196.4</v>
       </c>
       <c r="P5" s="6">
-        <v>36669.0</v>
+        <v>97473.9</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -1010,42 +1053,42 @@
         <v>19</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6">
-        <v>1020.0</v>
+        <v>28560.0</v>
       </c>
       <c r="O6" s="6">
-        <v>0.0</v>
+        <v>8109.0</v>
       </c>
       <c r="P6" s="6">
-        <v>1020.0</v>
+        <v>36669.0</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -1059,35 +1102,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
@@ -1100,7 +1143,7 @@
         <v>33690.69</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1114,35 +1157,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="L8" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6">
@@ -1155,7 +1198,7 @@
         <v>19045.95</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1169,35 +1212,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="L9" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6">
@@ -1210,10 +1253,10 @@
         <v>49415.1</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -1226,33 +1269,33 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6">
@@ -1279,48 +1322,48 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6">
-        <v>8313.0</v>
+        <v>6045.0</v>
       </c>
       <c r="O11" s="6">
-        <v>6920.7</v>
+        <v>0.0</v>
       </c>
       <c r="P11" s="6">
-        <v>15233.7</v>
+        <v>6045.0</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1334,52 +1377,50 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>71</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6">
-        <v>25372.5</v>
+        <v>8645.0</v>
       </c>
       <c r="O12" s="6">
-        <v>15928.15</v>
+        <v>0.0</v>
       </c>
       <c r="P12" s="6">
-        <v>41300.65</v>
+        <v>8645.0</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -1391,48 +1432,48 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6">
-        <v>5770.0</v>
+        <v>8313.0</v>
       </c>
       <c r="O13" s="6">
-        <v>27367.42</v>
+        <v>6920.7</v>
       </c>
       <c r="P13" s="6">
-        <v>33137.42</v>
+        <v>15233.7</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1452,45 +1493,45 @@
         <v>19</v>
       </c>
       <c r="D14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="L14" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6">
-        <v>18785.0</v>
+        <v>25372.5</v>
       </c>
       <c r="O14" s="6">
-        <v>6747.3</v>
+        <v>15928.15</v>
       </c>
       <c r="P14" s="6">
-        <v>25532.3</v>
+        <v>41300.65</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -1503,52 +1544,50 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K15" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6">
-        <v>25330.0</v>
+        <v>5770.0</v>
       </c>
       <c r="O15" s="6">
-        <v>13702.85</v>
+        <v>27367.42</v>
       </c>
       <c r="P15" s="6">
-        <v>39032.85</v>
+        <v>33137.42</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -1560,50 +1599,52 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6">
-        <v>8585.0</v>
+        <v>18785.0</v>
       </c>
       <c r="O16" s="6">
-        <v>511.7</v>
+        <v>6747.3</v>
       </c>
       <c r="P16" s="6">
-        <v>9096.7</v>
+        <v>25532.3</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -1615,53 +1656,51 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="8">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6">
+        <v>25330.0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>13702.85</v>
+      </c>
+      <c r="P17" s="6">
+        <v>39032.85</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="6">
-        <v>935.0</v>
-      </c>
-      <c r="O17" s="6">
-        <v>8937.85</v>
-      </c>
-      <c r="P17" s="6">
-        <v>9872.85</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -1674,48 +1713,48 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="8">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="L18" s="6" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6">
-        <v>5000.0</v>
+        <v>8585.0</v>
       </c>
       <c r="O18" s="6">
-        <v>0.0</v>
+        <v>511.7</v>
       </c>
       <c r="P18" s="6">
-        <v>5000.0</v>
+        <v>9096.7</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1725,29 +1764,198 @@
       <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6">
+        <v>27285.0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>4043.45</v>
+      </c>
+      <c r="P19" s="6">
+        <v>31328.45</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="6">
+        <v>935.0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>8937.85</v>
+      </c>
+      <c r="P20" s="6">
+        <v>9872.85</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6">
+        <v>20485.0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>20485.0</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1765,10 +1973,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1781,7 +1989,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1792,112 +2000,120 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
+      <c r="A8" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
+      <c r="A10" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
+      <c r="A12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1905,10 +2121,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1916,70 +2132,72 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>0</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
+      <c r="A20" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
         <v>0</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1987,10 +2205,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1998,13 +2216,46 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/public/tmp/reportCarstatus.xlsx
+++ b/public/tmp/reportCarstatus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>#</t>
   </si>
@@ -72,250 +72,217 @@
     <t>หมายเหตุ</t>
   </si>
   <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>ปกติ</t>
+  </si>
+  <si>
+    <t>2024-09-17</t>
+  </si>
+  <si>
+    <t>กท3</t>
+  </si>
+  <si>
+    <t>ATTO 3</t>
+  </si>
+  <si>
+    <t>BP81-2409-0032</t>
+  </si>
+  <si>
+    <t>L-เบา</t>
+  </si>
+  <si>
+    <t>คุ้มภัยโตเกียว</t>
+  </si>
+  <si>
+    <t>ศุภวัฒน์ หลานเด็น</t>
+  </si>
+  <si>
     <t>2024-09-09</t>
   </si>
   <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>ปกติ</t>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>กพ6164</t>
+  </si>
+  <si>
+    <t>DOLPHIN</t>
+  </si>
+  <si>
+    <t>BP81-2409-0025</t>
+  </si>
+  <si>
+    <t>M-กลาง</t>
+  </si>
+  <si>
+    <t>ทิพยประกันภัย</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>กพ4420</t>
+  </si>
+  <si>
+    <t>Triton</t>
+  </si>
+  <si>
+    <t>BP81-2409-0015</t>
+  </si>
+  <si>
+    <t>2024-08-31</t>
+  </si>
+  <si>
+    <t>เลยกำหนด</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>กพ9402</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>BP81-2408-0097</t>
+  </si>
+  <si>
+    <t>สิทธิศักดิ์ กังสกุล</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>กบ5413</t>
+  </si>
+  <si>
+    <t>Xpander</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>เมืองไทยประกัน</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>กบ8862</t>
+  </si>
+  <si>
+    <t>Attrage</t>
+  </si>
+  <si>
+    <t>BP81-2409-0040</t>
+  </si>
+  <si>
+    <t>BP81-2409-0033</t>
+  </si>
+  <si>
+    <t>BP81-2409-0034</t>
   </si>
   <si>
     <t>2024-09-15</t>
   </si>
   <si>
-    <t>กธ737</t>
+    <t>กน4856</t>
   </si>
   <si>
     <t>Pajero</t>
   </si>
   <si>
-    <t>BP81-2409-0018</t>
-  </si>
-  <si>
-    <t>L-เบา</t>
-  </si>
-  <si>
-    <t>วิริยะประกันภัย</t>
-  </si>
-  <si>
-    <t>ศุภวัฒน์ หลานเด็น</t>
-  </si>
-  <si>
-    <t>2024-09-11</t>
-  </si>
-  <si>
-    <t>2024-09-17</t>
-  </si>
-  <si>
-    <t>กท3</t>
-  </si>
-  <si>
-    <t>ATTO 3</t>
-  </si>
-  <si>
-    <t>BP81-2409-0032</t>
-  </si>
-  <si>
-    <t>คุ้มภัยโตเกียว</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>กพ6164</t>
-  </si>
-  <si>
-    <t>DOLPHIN</t>
-  </si>
-  <si>
-    <t>BP81-2409-0025</t>
-  </si>
-  <si>
-    <t>M-กลาง</t>
-  </si>
-  <si>
-    <t>ทิพยประกันภัย</t>
-  </si>
-  <si>
-    <t>2024-08-26</t>
-  </si>
-  <si>
-    <t>2024-09-16</t>
-  </si>
-  <si>
-    <t>กธ-8547</t>
-  </si>
-  <si>
-    <t>Xpander</t>
-  </si>
-  <si>
-    <t>BP81-2408-0069</t>
+    <t>BP81-2409-0023</t>
+  </si>
+  <si>
+    <t>12-09-2567 สั่งอะไหล่เพิ่มเติม (หม้อพักท่อไอเสีย)</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>กบ209</t>
+  </si>
+  <si>
+    <t>BP81-2409-0022</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>นวกิจ</t>
-  </si>
-  <si>
-    <t>สิทธิศักดิ์ กังสกุล</t>
-  </si>
-  <si>
-    <t>2024-09-06</t>
-  </si>
-  <si>
-    <t>2024-09-20</t>
-  </si>
-  <si>
-    <t>กพ4420</t>
-  </si>
-  <si>
-    <t>Triton</t>
-  </si>
-  <si>
-    <t>BP81-2409-0015</t>
-  </si>
-  <si>
-    <t>2024-08-31</t>
-  </si>
-  <si>
-    <t>เลยกำหนด</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>กพ9402</t>
-  </si>
-  <si>
-    <t>Mirage</t>
-  </si>
-  <si>
-    <t>BP81-2408-0097</t>
-  </si>
-  <si>
-    <t>2024-08-28</t>
+    <t>10-09-2567 ขออนุมัติเพิ่มเติม (สั่งอะไหล่เพิ่มเติมฝากระบะท้าย,บานพับ,กันชนหลัง,โคลงกันชนหลัง)</t>
+  </si>
+  <si>
+    <t>VIN002704</t>
+  </si>
+  <si>
+    <t>BP81-2409-0019</t>
+  </si>
+  <si>
+    <t>10-9-2567 รายการอนุมัติค่าแรงเพิ่มเติม(เบ้าไฟท้าย,ซับในกระบะ)</t>
+  </si>
+  <si>
+    <t>2024-08-29</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2ขฒ2213</t>
+  </si>
+  <si>
+    <t>BP81-2408-0091</t>
+  </si>
+  <si>
+    <t>รอเสนอตรวจเช็คกระจกมองข้างพิ่มเติม</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>7กด4315 ( 2 )</t>
+  </si>
+  <si>
+    <t>BP81-2409-0030</t>
+  </si>
+  <si>
+    <t>12-09-2567 สั่งอะหล่เพิ่มเติม(กาบล่างกันชนหลัง)</t>
   </si>
   <si>
     <t>2024-09-18</t>
   </si>
   <si>
-    <t>8กข3121</t>
-  </si>
-  <si>
-    <t>BP81-2408-0082</t>
-  </si>
-  <si>
-    <t>BP81-2408-0083</t>
-  </si>
-  <si>
-    <t>09-09-2567 สั่งอะไหล่เพิ่มเติม (คิ้วกันชนหน้าตัวล่างขวา)</t>
-  </si>
-  <si>
-    <t>2024-09-04</t>
-  </si>
-  <si>
-    <t>2024-10-09</t>
-  </si>
-  <si>
-    <t>กบ5413</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>เมืองไทยประกัน</t>
-  </si>
-  <si>
-    <t>BP81-2409-0033</t>
-  </si>
-  <si>
-    <t>BP81-2409-0034</t>
-  </si>
-  <si>
-    <t>กน4856</t>
-  </si>
-  <si>
-    <t>BP81-2409-0023</t>
-  </si>
-  <si>
-    <t>2024-09-30</t>
-  </si>
-  <si>
-    <t>กบ209</t>
-  </si>
-  <si>
-    <t>BP81-2409-0022</t>
-  </si>
-  <si>
-    <t>10-09-2567 ขออนุมัติเพิ่มเติม (สั่งอะไหล่เพิ่มเติมฝากระบะท้าย,บานพับ,กันชนหลัง,โคลงกันชนหลัง)</t>
-  </si>
-  <si>
-    <t>2024-09-10</t>
-  </si>
-  <si>
-    <t>4ขพ842</t>
-  </si>
-  <si>
-    <t>Jolion</t>
-  </si>
-  <si>
-    <t>BP81-2409-0029</t>
-  </si>
-  <si>
-    <t>VIN002704</t>
-  </si>
-  <si>
-    <t>BP81-2409-0019</t>
-  </si>
-  <si>
-    <t>10-9-2567 รายการอนุมัติค่าแรงเพิ่มเติม(เบ้าไฟท้าย,ซับในกระบะ)</t>
-  </si>
-  <si>
-    <t>2024-08-29</t>
-  </si>
-  <si>
-    <t>2024-09-12</t>
-  </si>
-  <si>
-    <t>2ขฒ2213</t>
-  </si>
-  <si>
-    <t>BP81-2408-0091</t>
-  </si>
-  <si>
-    <t>รอเสนอตรวจเช็คกระจกมองข้างพิ่มเติม</t>
-  </si>
-  <si>
-    <t>2024-08-30</t>
-  </si>
-  <si>
-    <t>2024-10-14</t>
-  </si>
-  <si>
-    <t>BP81-2408-0096</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>7กด4315 ( 2 )</t>
-  </si>
-  <si>
-    <t>BP81-2409-0030</t>
-  </si>
-  <si>
-    <t>บย2898</t>
-  </si>
-  <si>
-    <t>BP81-2409-0020</t>
-  </si>
-  <si>
-    <t>09-09-2567 ขออนุมัติรายการอะไหล่เพิ่มเติม(	กันชนเสริมหน้า)</t>
+    <t>กพ6992</t>
+  </si>
+  <si>
+    <t>BP81-2409-0035</t>
+  </si>
+  <si>
+    <t>5ขจ3562</t>
+  </si>
+  <si>
+    <t>BP81-2409-0037</t>
+  </si>
+  <si>
+    <t>9กฌ469</t>
+  </si>
+  <si>
+    <t>BP81-2409-0038</t>
   </si>
   <si>
     <t>7กด4315 ( 3 )</t>
@@ -324,22 +291,34 @@
     <t>BP81-2409-0031</t>
   </si>
   <si>
+    <t>บย1239</t>
+  </si>
+  <si>
+    <t>BP81-2409-0039</t>
+  </si>
+  <si>
+    <t>เทเวศประกันภัย</t>
+  </si>
+  <si>
+    <t>กน2315</t>
+  </si>
+  <si>
+    <t>BP81-2409-0041</t>
+  </si>
+  <si>
     <t>รายงานผลรวมของระยะเวลาการซ่อม</t>
   </si>
   <si>
-    <t>H1 (50)</t>
-  </si>
-  <si>
-    <t>H2 (8)</t>
-  </si>
-  <si>
-    <t>H3 (13)</t>
-  </si>
-  <si>
-    <t>L-เบา (28)</t>
-  </si>
-  <si>
-    <t>M-กลาง (38)</t>
+    <t>H1 (25 วัน)</t>
+  </si>
+  <si>
+    <t>H2 (35 วัน)</t>
+  </si>
+  <si>
+    <t>L-เบา (6 วัน)</t>
+  </si>
+  <si>
+    <t>M-กลาง (14 วัน)</t>
   </si>
 </sst>
 </file>
@@ -748,10 +727,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W22"/>
+      <selection activeCell="A2" sqref="A2:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,13 +838,13 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6">
-        <v>6273.0</v>
+        <v>3575.0</v>
       </c>
       <c r="O2" s="6">
         <v>0.0</v>
       </c>
       <c r="P2" s="6">
-        <v>6273.0</v>
+        <v>3575.0</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>27</v>
@@ -888,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
@@ -907,20 +886,20 @@
         <v>32</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6">
-        <v>3575.0</v>
+        <v>16607.5</v>
       </c>
       <c r="O3" s="6">
         <v>0.0</v>
       </c>
       <c r="P3" s="6">
-        <v>3575.0</v>
+        <v>16607.5</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>27</v>
@@ -937,45 +916,45 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6">
-        <v>16607.5</v>
+        <v>28560.0</v>
       </c>
       <c r="O4" s="6">
-        <v>0.0</v>
+        <v>8109.0</v>
       </c>
       <c r="P4" s="6">
-        <v>16607.5</v>
+        <v>36669.0</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>27</v>
@@ -998,42 +977,42 @@
         <v>19</v>
       </c>
       <c r="D5" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6">
-        <v>44277.5</v>
+        <v>18615.0</v>
       </c>
       <c r="O5" s="6">
-        <v>53196.4</v>
+        <v>15075.69</v>
       </c>
       <c r="P5" s="6">
-        <v>97473.9</v>
+        <v>33690.69</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -1047,45 +1026,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6">
-        <v>28560.0</v>
+        <v>44767.0</v>
       </c>
       <c r="O6" s="6">
-        <v>8109.0</v>
+        <v>142349.09</v>
       </c>
       <c r="P6" s="6">
-        <v>36669.0</v>
+        <v>187116.09</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>27</v>
@@ -1108,42 +1085,42 @@
         <v>19</v>
       </c>
       <c r="D7" s="8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
-        <v>18615.0</v>
+        <v>8205.0</v>
       </c>
       <c r="O7" s="6">
-        <v>15075.69</v>
+        <v>8157.45</v>
       </c>
       <c r="P7" s="6">
-        <v>33690.69</v>
+        <v>16362.45</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1157,48 +1134,48 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6">
-        <v>18785.0</v>
+        <v>6045.0</v>
       </c>
       <c r="O8" s="6">
-        <v>260.95</v>
+        <v>0.0</v>
       </c>
       <c r="P8" s="6">
-        <v>19045.95</v>
+        <v>6045.0</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1212,52 +1189,50 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6">
-        <v>41820.0</v>
+        <v>8645.0</v>
       </c>
       <c r="O9" s="6">
-        <v>7595.1</v>
+        <v>0.0</v>
       </c>
       <c r="P9" s="6">
-        <v>49415.1</v>
+        <v>8645.0</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -1269,48 +1244,52 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="K10" s="6" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6">
-        <v>44767.0</v>
+        <v>8313.0</v>
       </c>
       <c r="O10" s="6">
-        <v>142349.09</v>
+        <v>12343.7</v>
       </c>
       <c r="P10" s="6">
-        <v>187116.09</v>
+        <v>20656.7</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -1328,44 +1307,46 @@
         <v>19</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6">
-        <v>6045.0</v>
+        <v>25372.5</v>
       </c>
       <c r="O11" s="6">
-        <v>0.0</v>
+        <v>15928.15</v>
       </c>
       <c r="P11" s="6">
-        <v>6045.0</v>
+        <v>41300.65</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1383,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
@@ -1393,34 +1374,36 @@
         <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>71</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6">
-        <v>8645.0</v>
+        <v>18785.0</v>
       </c>
       <c r="O12" s="6">
-        <v>0.0</v>
+        <v>6747.3</v>
       </c>
       <c r="P12" s="6">
-        <v>8645.0</v>
+        <v>25532.3</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -1432,50 +1415,52 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="8">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6">
-        <v>8313.0</v>
+        <v>25330.0</v>
       </c>
       <c r="O13" s="6">
-        <v>6920.7</v>
+        <v>13702.85</v>
       </c>
       <c r="P13" s="6">
-        <v>15233.7</v>
+        <v>39032.85</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -1500,38 +1485,38 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6">
-        <v>25372.5</v>
+        <v>25840.0</v>
       </c>
       <c r="O14" s="6">
-        <v>15928.15</v>
+        <v>4952.95</v>
       </c>
       <c r="P14" s="6">
-        <v>41300.65</v>
+        <v>30792.95</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -1544,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>19</v>
@@ -1557,35 +1542,35 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6">
-        <v>5770.0</v>
+        <v>3485.0</v>
       </c>
       <c r="O15" s="6">
-        <v>27367.42</v>
+        <v>6681.0</v>
       </c>
       <c r="P15" s="6">
-        <v>33137.42</v>
+        <v>10166.0</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1599,52 +1584,50 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6">
-        <v>18785.0</v>
+        <v>4896.0</v>
       </c>
       <c r="O16" s="6">
-        <v>6747.3</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="6">
-        <v>25532.3</v>
+        <v>4896.0</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -1656,52 +1639,50 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="8">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>87</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>88</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6">
-        <v>25330.0</v>
+        <v>10795.0</v>
       </c>
       <c r="O17" s="6">
-        <v>13702.85</v>
+        <v>4715.8</v>
       </c>
       <c r="P17" s="6">
-        <v>39032.85</v>
+        <v>15510.8</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -1713,48 +1694,48 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6">
-        <v>8585.0</v>
+        <v>20485.0</v>
       </c>
       <c r="O18" s="6">
-        <v>511.7</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="6">
-        <v>9096.7</v>
+        <v>20485.0</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1768,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>19</v>
@@ -1781,35 +1762,35 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6">
-        <v>27285.0</v>
+        <v>6502.5</v>
       </c>
       <c r="O19" s="6">
-        <v>4043.45</v>
+        <v>5609.24</v>
       </c>
       <c r="P19" s="6">
-        <v>31328.45</v>
+        <v>12111.74</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -1823,54 +1804,50 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6">
+        <v>3672.0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3672.0</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="6">
-        <v>935.0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>8937.85</v>
-      </c>
-      <c r="P20" s="6">
-        <v>9872.85</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -1878,84 +1855,29 @@
       <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6">
-        <v>20485.0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>20485.0</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1973,10 +1895,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:C20"/>
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1989,7 +1911,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2000,128 +1922,132 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
+      <c r="A5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>17</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="C8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2132,61 +2058,61 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
+      <c r="A18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="C19">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="C20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2194,21 +2120,21 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2216,46 +2142,24 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
         <v>0</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/tmp/reportCarstatus.xlsx
+++ b/public/tmp/reportCarstatus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -198,64 +198,43 @@
     <t>BP81-2409-0034</t>
   </si>
   <si>
-    <t>2024-09-15</t>
-  </si>
-  <si>
-    <t>กน4856</t>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>กบ209</t>
+  </si>
+  <si>
+    <t>BP81-2409-0022</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>10-09-2567 ขออนุมัติเพิ่มเติม (สั่งอะไหล่เพิ่มเติมฝากระบะท้าย,บานพับ,กันชนหลัง,โคลงกันชนหลัง)</t>
+  </si>
+  <si>
+    <t>2024-08-29</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2ขฒ2213</t>
+  </si>
+  <si>
+    <t>BP81-2408-0091</t>
+  </si>
+  <si>
+    <t>รอเสนอตรวจเช็คกระจกมองข้างพิ่มเติม</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>7กด4315 ( 2 )</t>
   </si>
   <si>
     <t>Pajero</t>
-  </si>
-  <si>
-    <t>BP81-2409-0023</t>
-  </si>
-  <si>
-    <t>12-09-2567 สั่งอะไหล่เพิ่มเติม (หม้อพักท่อไอเสีย)</t>
-  </si>
-  <si>
-    <t>2024-09-30</t>
-  </si>
-  <si>
-    <t>กบ209</t>
-  </si>
-  <si>
-    <t>BP81-2409-0022</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>10-09-2567 ขออนุมัติเพิ่มเติม (สั่งอะไหล่เพิ่มเติมฝากระบะท้าย,บานพับ,กันชนหลัง,โคลงกันชนหลัง)</t>
-  </si>
-  <si>
-    <t>VIN002704</t>
-  </si>
-  <si>
-    <t>BP81-2409-0019</t>
-  </si>
-  <si>
-    <t>10-9-2567 รายการอนุมัติค่าแรงเพิ่มเติม(เบ้าไฟท้าย,ซับในกระบะ)</t>
-  </si>
-  <si>
-    <t>2024-08-29</t>
-  </si>
-  <si>
-    <t>2024-09-12</t>
-  </si>
-  <si>
-    <t>2ขฒ2213</t>
-  </si>
-  <si>
-    <t>BP81-2408-0091</t>
-  </si>
-  <si>
-    <t>รอเสนอตรวจเช็คกระจกมองข้างพิ่มเติม</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>7กด4315 ( 2 )</t>
   </si>
   <si>
     <t>BP81-2409-0030</t>
@@ -367,7 +346,7 @@
       <name val="Candara"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFffb703"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe85d04"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -396,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -428,6 +413,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +713,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W21"/>
+      <selection activeCell="A2" sqref="A2:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1263,26 +1249,26 @@
         <v>61</v>
       </c>
       <c r="I10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6">
-        <v>8313.0</v>
+        <v>25372.5</v>
       </c>
       <c r="O10" s="6">
-        <v>12343.7</v>
+        <v>15928.15</v>
       </c>
       <c r="P10" s="6">
-        <v>20656.7</v>
+        <v>41300.65</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>46</v>
@@ -1301,48 +1287,48 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6">
-        <v>25372.5</v>
+        <v>25330.0</v>
       </c>
       <c r="O11" s="6">
-        <v>15928.15</v>
+        <v>13702.85</v>
       </c>
       <c r="P11" s="6">
-        <v>41300.65</v>
+        <v>39032.85</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>69</v>
@@ -1358,29 +1344,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>33</v>
@@ -1390,19 +1376,19 @@
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6">
-        <v>18785.0</v>
+        <v>25840.0</v>
       </c>
       <c r="O12" s="6">
-        <v>6747.3</v>
+        <v>4952.95</v>
       </c>
       <c r="P12" s="6">
-        <v>25532.3</v>
+        <v>30792.95</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1415,52 +1401,50 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="8">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>50</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6">
-        <v>25330.0</v>
+        <v>3485.0</v>
       </c>
       <c r="O13" s="6">
-        <v>13702.85</v>
+        <v>6681.0</v>
       </c>
       <c r="P13" s="6">
-        <v>39032.85</v>
+        <v>10166.0</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -1472,52 +1456,50 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K14" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6">
-        <v>25840.0</v>
+        <v>4896.0</v>
       </c>
       <c r="O14" s="6">
-        <v>4952.95</v>
+        <v>0.0</v>
       </c>
       <c r="P14" s="6">
-        <v>30792.95</v>
+        <v>4896.0</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -1529,7 +1511,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>19</v>
@@ -1542,16 +1524,16 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>25</v>
@@ -1561,16 +1543,16 @@
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6">
-        <v>3485.0</v>
+        <v>10795.0</v>
       </c>
       <c r="O15" s="6">
-        <v>6681.0</v>
+        <v>4715.8</v>
       </c>
       <c r="P15" s="6">
-        <v>10166.0</v>
+        <v>15510.8</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1584,48 +1566,48 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6">
-        <v>4896.0</v>
+        <v>20485.0</v>
       </c>
       <c r="O16" s="6">
         <v>0.0</v>
       </c>
       <c r="P16" s="6">
-        <v>4896.0</v>
+        <v>20485.0</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1639,48 +1621,48 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6">
-        <v>10795.0</v>
+        <v>6502.5</v>
       </c>
       <c r="O17" s="6">
-        <v>4715.8</v>
+        <v>5609.24</v>
       </c>
       <c r="P17" s="6">
-        <v>15510.8</v>
+        <v>12111.74</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1694,48 +1676,48 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6">
-        <v>20485.0</v>
+        <v>3672.0</v>
       </c>
       <c r="O18" s="6">
         <v>0.0</v>
       </c>
       <c r="P18" s="6">
-        <v>20485.0</v>
+        <v>3672.0</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1745,139 +1727,29 @@
       <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6">
-        <v>6502.5</v>
-      </c>
-      <c r="O19" s="6">
-        <v>5609.24</v>
-      </c>
-      <c r="P19" s="6">
-        <v>12111.74</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6">
-        <v>3672.0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>3672.0</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1895,7 +1767,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A18" sqref="A18:C18"/>
@@ -1911,7 +1783,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1927,14 +1799,14 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1945,7 +1817,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1963,14 +1835,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1981,7 +1853,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2025,7 +1897,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2036,61 +1908,61 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="13">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2098,7 +1970,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2109,10 +1981,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2120,45 +1992,23 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
         <v>0</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
         <v>14</v>
       </c>
     </row>

--- a/public/tmp/reportCarstatus.xlsx
+++ b/public/tmp/reportCarstatus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>#</t>
   </si>
@@ -72,7 +72,7 @@
     <t>หมายเหตุ</t>
   </si>
   <si>
-    <t>2024-09-11</t>
+    <t>2024-10-19</t>
   </si>
   <si>
     <t>0000-00-00</t>
@@ -81,16 +81,16 @@
     <t>ปกติ</t>
   </si>
   <si>
-    <t>2024-09-17</t>
-  </si>
-  <si>
-    <t>กท3</t>
-  </si>
-  <si>
-    <t>ATTO 3</t>
-  </si>
-  <si>
-    <t>BP81-2409-0032</t>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>กพ5764</t>
+  </si>
+  <si>
+    <t>Triton</t>
+  </si>
+  <si>
+    <t>BP81-2410-0060</t>
   </si>
   <si>
     <t>L-เบา</t>
@@ -102,187 +102,247 @@
     <t>ศุภวัฒน์ หลานเด็น</t>
   </si>
   <si>
-    <t>2024-09-09</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
-  </si>
-  <si>
-    <t>กพ6164</t>
+    <t>12-09-2567 สั่งสติ๊กเกอร์ประตูหน้าซ้าย ( S-SPORTY)</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>กพ5227</t>
+  </si>
+  <si>
+    <t>Attrage</t>
+  </si>
+  <si>
+    <t>BP81-2410-0015</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>กท1946</t>
+  </si>
+  <si>
+    <t>BP81-2410-0049</t>
+  </si>
+  <si>
+    <t>วิริยะประกันภัย</t>
+  </si>
+  <si>
+    <t>2024-10-30</t>
+  </si>
+  <si>
+    <t>BP81-2410-0050</t>
+  </si>
+  <si>
+    <t>M-กลาง</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>3ขณ6203</t>
+  </si>
+  <si>
+    <t>Xpander</t>
+  </si>
+  <si>
+    <t>BP81-2410-0004</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-10-20</t>
+  </si>
+  <si>
+    <t>กท7926</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>BP81-2410-0032</t>
+  </si>
+  <si>
+    <t>สิทธิศักดิ์ กังสกุล</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>9กฌ469</t>
+  </si>
+  <si>
+    <t>Pajero</t>
+  </si>
+  <si>
+    <t>BP81-2410-0020</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>12-10-2567 สั่งรายการอะไหล่เพิ่มเติม 3 รายการ(	ซับในแผงข้างขวา,แผงต่อมุมกระบะข้างด้านในขวา,คานขวางพื้นหลังขวา)</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>กบ8595</t>
+  </si>
+  <si>
+    <t>BP81-2410-0018</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>เลยกำหนด</t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
+  </si>
+  <si>
+    <t>กค9779</t>
+  </si>
+  <si>
+    <t>CLS250 CGI2.2</t>
+  </si>
+  <si>
+    <t>BP81-2410-0027</t>
+  </si>
+  <si>
+    <t>อลิอันซ์ อยุธยา</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>9กข3633</t>
+  </si>
+  <si>
+    <t>BP81-2410-0053</t>
+  </si>
+  <si>
+    <t>กรุงเทพประกันภัย</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
+    <t>กธ6446</t>
+  </si>
+  <si>
+    <t>BP81-2410-0039</t>
+  </si>
+  <si>
+    <t>17-10-2567 สั่งอะไหล่เพิ่มเติม(ขายึดมุมกันชนขวา,บังลมหม้อน้ำ)</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>กพ7027</t>
   </si>
   <si>
     <t>DOLPHIN</t>
   </si>
   <si>
-    <t>BP81-2409-0025</t>
-  </si>
-  <si>
-    <t>M-กลาง</t>
+    <t>BP81-2410-0041</t>
   </si>
   <si>
     <t>ทิพยประกันภัย</t>
   </si>
   <si>
-    <t>2024-09-06</t>
-  </si>
-  <si>
-    <t>2024-09-20</t>
-  </si>
-  <si>
-    <t>กพ4420</t>
-  </si>
-  <si>
-    <t>Triton</t>
-  </si>
-  <si>
-    <t>BP81-2409-0015</t>
-  </si>
-  <si>
-    <t>2024-08-31</t>
-  </si>
-  <si>
-    <t>เลยกำหนด</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>กพ9402</t>
-  </si>
-  <si>
-    <t>Mirage</t>
-  </si>
-  <si>
-    <t>BP81-2408-0097</t>
-  </si>
-  <si>
-    <t>สิทธิศักดิ์ กังสกุล</t>
-  </si>
-  <si>
-    <t>2024-09-04</t>
-  </si>
-  <si>
-    <t>2024-10-09</t>
+    <t>บย5530</t>
+  </si>
+  <si>
+    <t>Dmax</t>
+  </si>
+  <si>
+    <t>BP81-2410-0048</t>
+  </si>
+  <si>
+    <t>นวกิจ</t>
+  </si>
+  <si>
+    <t>กน8752</t>
+  </si>
+  <si>
+    <t>BP81-2410-0045</t>
+  </si>
+  <si>
+    <t>กร6243</t>
+  </si>
+  <si>
+    <t>BP81-2410-0046</t>
+  </si>
+  <si>
+    <t>BP81-2410-0047</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>5ขภ3418</t>
+  </si>
+  <si>
+    <t>BP81-2410-0051</t>
+  </si>
+  <si>
+    <t>BP81-2410-0052</t>
+  </si>
+  <si>
+    <t>ก2589</t>
+  </si>
+  <si>
+    <t>Goodcat</t>
+  </si>
+  <si>
+    <t>BP81-2410-0044</t>
+  </si>
+  <si>
+    <t>3ฒว9178</t>
+  </si>
+  <si>
+    <t>BP81-2410-0059</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
   </si>
   <si>
     <t>กบ5413</t>
   </si>
   <si>
-    <t>Xpander</t>
-  </si>
-  <si>
-    <t>H2</t>
+    <t>BP81-2410-0056</t>
   </si>
   <si>
     <t>เมืองไทยประกัน</t>
   </si>
   <si>
-    <t>2024-09-13</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
-    <t>กบ8862</t>
-  </si>
-  <si>
-    <t>Attrage</t>
-  </si>
-  <si>
-    <t>BP81-2409-0040</t>
-  </si>
-  <si>
-    <t>BP81-2409-0033</t>
-  </si>
-  <si>
-    <t>BP81-2409-0034</t>
-  </si>
-  <si>
-    <t>2024-09-30</t>
-  </si>
-  <si>
-    <t>กบ209</t>
-  </si>
-  <si>
-    <t>BP81-2409-0022</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>10-09-2567 ขออนุมัติเพิ่มเติม (สั่งอะไหล่เพิ่มเติมฝากระบะท้าย,บานพับ,กันชนหลัง,โคลงกันชนหลัง)</t>
-  </si>
-  <si>
-    <t>2024-08-29</t>
-  </si>
-  <si>
-    <t>2024-09-12</t>
-  </si>
-  <si>
-    <t>2ขฒ2213</t>
-  </si>
-  <si>
-    <t>BP81-2408-0091</t>
-  </si>
-  <si>
-    <t>รอเสนอตรวจเช็คกระจกมองข้างพิ่มเติม</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>7กด4315 ( 2 )</t>
-  </si>
-  <si>
-    <t>Pajero</t>
-  </si>
-  <si>
-    <t>BP81-2409-0030</t>
-  </si>
-  <si>
-    <t>12-09-2567 สั่งอะหล่เพิ่มเติม(กาบล่างกันชนหลัง)</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>กพ6992</t>
-  </si>
-  <si>
-    <t>BP81-2409-0035</t>
-  </si>
-  <si>
-    <t>5ขจ3562</t>
-  </si>
-  <si>
-    <t>BP81-2409-0037</t>
-  </si>
-  <si>
-    <t>9กฌ469</t>
-  </si>
-  <si>
-    <t>BP81-2409-0038</t>
-  </si>
-  <si>
-    <t>7กด4315 ( 3 )</t>
-  </si>
-  <si>
-    <t>BP81-2409-0031</t>
-  </si>
-  <si>
-    <t>บย1239</t>
-  </si>
-  <si>
-    <t>BP81-2409-0039</t>
-  </si>
-  <si>
-    <t>เทเวศประกันภัย</t>
-  </si>
-  <si>
-    <t>กน2315</t>
-  </si>
-  <si>
-    <t>BP81-2409-0041</t>
+    <t>BP81-2410-0057</t>
   </si>
   <si>
     <t>รายงานผลรวมของระยะเวลาการซ่อม</t>
@@ -292,6 +352,9 @@
   </si>
   <si>
     <t>H2 (35 วัน)</t>
+  </si>
+  <si>
+    <t>H3 (45 วัน)</t>
   </si>
   <si>
     <t>L-เบา (6 วัน)</t>
@@ -713,10 +776,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:W19"/>
+      <selection activeCell="A2" sqref="A2:W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,7 +861,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
@@ -824,18 +887,20 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6">
-        <v>3575.0</v>
+        <v>9860.0</v>
       </c>
       <c r="O2" s="6">
-        <v>0.0</v>
+        <v>11955.25</v>
       </c>
       <c r="P2" s="6">
-        <v>3575.0</v>
+        <v>21815.25</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="6"/>
+      <c r="R2" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -847,45 +912,45 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6">
-        <v>16607.5</v>
+        <v>49305.0</v>
       </c>
       <c r="O3" s="6">
-        <v>0.0</v>
+        <v>219168.69</v>
       </c>
       <c r="P3" s="6">
-        <v>16607.5</v>
+        <v>268473.69</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>27</v>
@@ -908,7 +973,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>20</v>
@@ -921,26 +986,26 @@
         <v>37</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6">
-        <v>28560.0</v>
+        <v>3436.0</v>
       </c>
       <c r="O4" s="6">
-        <v>8109.0</v>
+        <v>3970.0</v>
       </c>
       <c r="P4" s="6">
-        <v>36669.0</v>
+        <v>7406.0</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>27</v>
@@ -957,48 +1022,48 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="L5" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6">
-        <v>18615.0</v>
+        <v>11433.0</v>
       </c>
       <c r="O5" s="6">
-        <v>15075.69</v>
+        <v>0.0</v>
       </c>
       <c r="P5" s="6">
-        <v>33690.69</v>
+        <v>11433.0</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -1012,43 +1077,45 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6">
-        <v>44767.0</v>
+        <v>38007.5</v>
       </c>
       <c r="O6" s="6">
-        <v>142349.09</v>
+        <v>75129.89</v>
       </c>
       <c r="P6" s="6">
-        <v>187116.09</v>
+        <v>113137.39</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>27</v>
@@ -1065,29 +1132,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>25</v>
@@ -1097,16 +1164,16 @@
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6">
-        <v>8205.0</v>
+        <v>11135.0</v>
       </c>
       <c r="O7" s="6">
-        <v>8157.45</v>
+        <v>2677.5</v>
       </c>
       <c r="P7" s="6">
-        <v>16362.45</v>
+        <v>13812.5</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1120,50 +1187,52 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6">
-        <v>6045.0</v>
+        <v>33405.0</v>
       </c>
       <c r="O8" s="6">
-        <v>0.0</v>
+        <v>95239.95</v>
       </c>
       <c r="P8" s="6">
-        <v>6045.0</v>
+        <v>128644.95</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -1175,48 +1244,48 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6">
-        <v>8645.0</v>
+        <v>27489.0</v>
       </c>
       <c r="O9" s="6">
-        <v>0.0</v>
+        <v>43103.5</v>
       </c>
       <c r="P9" s="6">
-        <v>8645.0</v>
+        <v>70592.5</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1230,52 +1299,50 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6">
-        <v>25372.5</v>
+        <v>2500.0</v>
       </c>
       <c r="O10" s="6">
-        <v>15928.15</v>
+        <v>0.0</v>
       </c>
       <c r="P10" s="6">
-        <v>41300.65</v>
+        <v>2500.0</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -1287,52 +1354,50 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="8">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6">
-        <v>25330.0</v>
+        <v>28645.0</v>
       </c>
       <c r="O11" s="6">
-        <v>13702.85</v>
+        <v>3396.4</v>
       </c>
       <c r="P11" s="6">
-        <v>39032.85</v>
+        <v>32041.4</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1344,51 +1409,51 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6">
-        <v>25840.0</v>
+        <v>15725.0</v>
       </c>
       <c r="O12" s="6">
-        <v>4952.95</v>
+        <v>39004.45</v>
       </c>
       <c r="P12" s="6">
-        <v>30792.95</v>
+        <v>54729.45</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1401,48 +1466,48 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6">
-        <v>3485.0</v>
+        <v>9880.0</v>
       </c>
       <c r="O13" s="6">
-        <v>6681.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" s="6">
-        <v>10166.0</v>
+        <v>9880.0</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1456,48 +1521,48 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6">
-        <v>4896.0</v>
+        <v>7210.0</v>
       </c>
       <c r="O14" s="6">
         <v>0.0</v>
       </c>
       <c r="P14" s="6">
-        <v>4896.0</v>
+        <v>7210.0</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1511,29 +1576,29 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>25</v>
@@ -1543,16 +1608,16 @@
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6">
-        <v>10795.0</v>
+        <v>8704.0</v>
       </c>
       <c r="O15" s="6">
-        <v>4715.8</v>
+        <v>4115.7</v>
       </c>
       <c r="P15" s="6">
-        <v>15510.8</v>
+        <v>12819.7</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1566,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
@@ -1579,35 +1644,35 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6">
-        <v>20485.0</v>
+        <v>3000.0</v>
       </c>
       <c r="O16" s="6">
-        <v>0.0</v>
+        <v>2834.75</v>
       </c>
       <c r="P16" s="6">
-        <v>20485.0</v>
+        <v>5834.75</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1621,48 +1686,48 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6">
-        <v>6502.5</v>
+        <v>400.0</v>
       </c>
       <c r="O17" s="6">
-        <v>5609.24</v>
+        <v>1922.7</v>
       </c>
       <c r="P17" s="6">
-        <v>12111.74</v>
+        <v>2322.7</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1676,29 +1741,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>25</v>
@@ -1708,16 +1773,16 @@
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6">
-        <v>3672.0</v>
+        <v>11611.0</v>
       </c>
       <c r="O18" s="6">
-        <v>0.0</v>
+        <v>2929.95</v>
       </c>
       <c r="P18" s="6">
-        <v>3672.0</v>
+        <v>14540.95</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1727,29 +1792,304 @@
       <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6">
+        <v>6494.0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>6494.0</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6">
+        <v>4930.0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>18560.94</v>
+      </c>
+      <c r="P20" s="6">
+        <v>23490.94</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6">
+        <v>186.0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>2550.0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>2736.0</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6">
+        <v>10030.0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>10030.0</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6">
+        <v>8415.0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>8415.0</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1767,10 +2107,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1783,7 +2123,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1794,40 +2134,40 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1835,134 +2175,134 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
+      <c r="A9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>3</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>3</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="A14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="13">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="13">
-        <v>16</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1970,10 +2310,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1981,10 +2321,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1992,24 +2332,86 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
